--- a/testes/svm.xlsx
+++ b/testes/svm.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D3764-0D35-41A0-9ECE-05AEE4F24546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979260FA-15A0-460F-8677-9F898F932E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34545" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="1" r:id="rId1"/>
     <sheet name="ORB" sheetId="3" r:id="rId2"/>
     <sheet name="Parametros" sheetId="2" r:id="rId3"/>
-    <sheet name="SIFT" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId4"/>
+    <sheet name="SIFT" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
   <si>
     <t>HOG</t>
   </si>
@@ -126,6 +128,12 @@
   </si>
   <si>
     <t>SIFT PCA 3</t>
+  </si>
+  <si>
+    <t>SURF</t>
+  </si>
+  <si>
+    <t>COMB</t>
   </si>
 </sst>
 </file>
@@ -267,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,9 +285,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,6 +334,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A9FFC0-4EA9-4DAB-A402-2F4F77CE1FBA}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -694,1267 +705,1267 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="B7" s="22"/>
+      <c r="I7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="Q7" s="4" t="s">
+      <c r="J7" s="23"/>
+      <c r="Q7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="4"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6" t="s">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>52</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f>SUM(A10+B11)/SUM(A10:B11)</f>
         <v>0.70854271356783916</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f>SUM(A11,B10)/SUM(A10:B11)</f>
         <v>0.29145728643216079</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f>A10/SUM(A10,A11)</f>
         <v>0.5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f>A10/SUM(A10,B10)</f>
         <v>0.10344827586206896</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
         <v>0.17142857142857143</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>20</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>38</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <f>SUM(I10+J11)/SUM(I10:J11)</f>
         <v>0.64321608040201006</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <f>SUM(I11,J10)/SUM(I10:J11)</f>
         <v>0.35678391959798994</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <f>I10/SUM(I10,I11)</f>
         <v>0.37735849056603776</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <f>I10/SUM(I10,J10)</f>
         <v>0.34482758620689657</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
         <v>0.3603603603603604</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>39</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="11">
         <v>19</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
         <v>0.61306532663316582</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="8">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
         <v>0.38693467336683418</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="8">
         <f>Q10/SUM(Q10,Q11)</f>
         <v>0.40206185567010311</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="8">
         <f>Q10/SUM(Q10,R10)</f>
         <v>0.67241379310344829</v>
       </c>
-      <c r="W10" s="10">
+      <c r="W10" s="9">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
         <v>0.50322580645161286</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>135</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="I11" s="11">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="10">
         <v>33</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>108</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="Q11" s="11">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="10">
         <v>58</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="11">
         <v>83</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="10"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>0</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>67</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f>SUM(A13+B14)/SUM(A13:B14)</f>
         <v>0.63819095477386933</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f>SUM(A14,B13)/SUM(A13:B14)</f>
         <v>0.36180904522613067</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f>A13/SUM(A13,A14)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f>A13/SUM(A13,B13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>33</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>35</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <f>SUM(I13+J14)/SUM(I13:J14)</f>
         <v>0.69</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <f>SUM(I14,J13)/SUM(I13:J14)</f>
         <v>0.31</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <f>I13/SUM(I13,I14)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <f>I13/SUM(I13,J13)</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
         <v>0.51562499999999989</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>47</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <v>20</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
         <v>0.62814070351758799</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="8">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
         <v>0.37185929648241206</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="8">
         <f>Q13/SUM(Q13,Q14)</f>
         <v>0.46534653465346537</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="8">
         <f>Q13/SUM(Q13,R13)</f>
         <v>0.70149253731343286</v>
       </c>
-      <c r="W13" s="10">
+      <c r="W13" s="9">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
         <v>0.55952380952380953</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>127</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="I14" s="11">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="10">
         <v>27</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>105</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="11">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+      <c r="Q14" s="10">
         <v>54</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="11">
         <v>78</v>
       </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="10"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>0</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>61</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f>SUM(A16+B17)/SUM(A16:B17)</f>
         <v>0.6733668341708543</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f>SUM(A17,B16)/SUM(A16:B17)</f>
         <v>0.32663316582914576</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f>A16/SUM(A16,A17)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f>A16/SUM(A16,B16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>30</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>31</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <f>SUM(I16+J17)/SUM(I16:J17)</f>
         <v>0.63316582914572861</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <f>SUM(I17,J16)/SUM(I16:J17)</f>
         <v>0.36683417085427134</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <f>I16/SUM(I16,I17)</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <f>I16/SUM(I16,J16)</f>
         <v>0.49180327868852458</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
         <v>0.45112781954887221</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="10">
         <v>47</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="11">
         <v>14</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
         <v>0.65326633165829151</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="8">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
         <v>0.34673366834170855</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="8">
         <f>Q16/SUM(Q16,Q17)</f>
         <v>0.46078431372549017</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="8">
         <f>Q16/SUM(Q16,R16)</f>
         <v>0.77049180327868849</v>
       </c>
-      <c r="W16" s="10">
+      <c r="W16" s="9">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
         <v>0.57668711656441718</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>4</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>134</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="I17" s="11">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="10">
         <v>42</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>96</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="11">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="Q17" s="10">
         <v>55</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="11">
         <v>83</v>
       </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="10"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="10"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>60</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <f>SUM(A19+B20)/SUM(A19:B20)</f>
         <v>0.65829145728643212</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <f>SUM(A20,B19)/SUM(A19:B20)</f>
         <v>0.34170854271356782</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <f>A19/SUM(A19,A20)</f>
         <v>0.2</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f>A19/SUM(A19,B19)</f>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>20</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>42</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <f>SUM(I19+J20)/SUM(I19:J20)</f>
         <v>0.60301507537688437</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <f>SUM(I20,J19)/SUM(I19:J20)</f>
         <v>0.39698492462311558</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <f>I19/SUM(I19,I20)</f>
         <v>0.35087719298245612</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <f>I19/SUM(I19,J19)</f>
         <v>0.32258064516129031</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
         <v>0.33613445378151263</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="10">
         <v>38</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="11">
         <v>24</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="8">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
         <v>0.61306532663316582</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="8">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
         <v>0.38693467336683418</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="8">
         <f>Q19/SUM(Q19,Q20)</f>
         <v>0.4175824175824176</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="8">
         <f>Q19/SUM(Q19,R19)</f>
         <v>0.61290322580645162</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="9">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
         <v>0.49673202614379092</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>8</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>129</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="I20" s="11">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="I20" s="10">
         <v>37</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>100</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="11">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="Q20" s="10">
         <v>53</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="11">
         <v>84</v>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="10"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="10"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>1</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>73</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <f>SUM(A22+B23)/SUM(A22:B23)</f>
         <v>0.61809045226130654</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <f>SUM(A23,B22)/SUM(A22:B23)</f>
         <v>0.38190954773869346</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <f>A22/SUM(A22,A23)</f>
         <v>0.25</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <f>A22/SUM(A22,B22)</f>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
         <v>2.5641025641025644E-2</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>31</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>43</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <f>SUM(I22+J23)/SUM(I22:J23)</f>
         <v>0.64824120603015079</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <f>SUM(I23,J22)/SUM(I22:J23)</f>
         <v>0.35175879396984927</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <f>I22/SUM(I22,I23)</f>
         <v>0.53448275862068961</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <f>I22/SUM(I22,J22)</f>
         <v>0.41891891891891891</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
         <v>0.46969696969696967</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="10">
         <v>45</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <v>29</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="8">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
         <v>0.5879396984924623</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
         <v>0.4120603015075377</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="8">
         <f>Q22/SUM(Q22,Q23)</f>
         <v>0.45918367346938777</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="8">
         <f>Q22/SUM(Q22,R22)</f>
         <v>0.60810810810810811</v>
       </c>
-      <c r="W22" s="10">
+      <c r="W22" s="9">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
         <v>0.52325581395348841</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>3</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>122</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="I23" s="11">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="I23" s="10">
         <v>27</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <v>98</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="Q23" s="11">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+      <c r="Q23" s="10">
         <v>53</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="11">
         <v>72</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="10"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="10"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>3</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>54</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <f>SUM(A25+B26)/SUM(A25:B26)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <f>SUM(A26,B25)/SUM(A25:B26)</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <f>A25/SUM(A25,A26)</f>
         <v>0.75</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f>A25/SUM(A25,B25)</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
         <v>9.8360655737704916E-2</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>13</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>44</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <f>SUM(I25+J26)/SUM(I25:J26)</f>
         <v>0.59595959595959591</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <f>SUM(I26,J25)/SUM(I25:J26)</f>
         <v>0.40404040404040403</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <f>I25/SUM(I25,I26)</f>
         <v>0.26530612244897961</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <f>I25/SUM(I25,J25)</f>
         <v>0.22807017543859648</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="9">
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
         <v>0.24528301886792453</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="10">
         <v>25</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="11">
         <v>32</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="8">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
         <v>0.53535353535353536</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="8">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
         <v>0.46464646464646464</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="8">
         <f>Q25/SUM(Q25,Q26)</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="8">
         <f>Q25/SUM(Q25,R25)</f>
         <v>0.43859649122807015</v>
       </c>
-      <c r="W25" s="10">
+      <c r="W25" s="9">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
         <v>0.35211267605633806</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>140</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="I26" s="11">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="10">
         <v>36</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <v>105</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="Q26" s="11">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+      <c r="Q26" s="10">
         <v>60</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="11">
         <v>81</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="10"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="10"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="10"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>52</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <f>SUM(A28+B29)/SUM(A28:B29)</f>
         <v>0.70558375634517767</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
         <v>0.29441624365482233</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <f>A28/SUM(A28,A29)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <f>A28/SUM(A28,B28)</f>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
         <v>9.375E-2</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>24</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>31</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <f>SUM(I28+J29)/SUM(I28:J29)</f>
         <v>0.6649746192893401</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <f t="shared" ref="L28" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
         <v>0.3350253807106599</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <f>I28/SUM(I28,I29)</f>
         <v>0.40677966101694918</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <f>I28/SUM(I28,J28)</f>
         <v>0.43636363636363634</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="9">
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
         <v>0.4210526315789474</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="10">
         <v>33</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="11">
         <v>22</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S28" s="8">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
         <v>0.58883248730964466</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="8">
         <f t="shared" ref="T28" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
         <v>0.41116751269035534</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U28" s="8">
         <f>Q28/SUM(Q28,Q29)</f>
         <v>0.35869565217391303</v>
       </c>
-      <c r="V28" s="9">
+      <c r="V28" s="8">
         <f>Q28/SUM(Q28,R28)</f>
         <v>0.6</v>
       </c>
-      <c r="W28" s="10">
+      <c r="W28" s="9">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
         <v>0.44897959183673469</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>6</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>136</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="I29" s="11">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="I29" s="10">
         <v>35</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>107</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
-      <c r="Q29" s="11">
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="9"/>
+      <c r="Q29" s="10">
         <v>59</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29" s="11">
         <v>83</v>
       </c>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="10"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="10"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="10"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>3</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>58</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <f>SUM(A31+B32)/SUM(A31:B32)</f>
         <v>0.68181818181818177</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>0.31818181818181818</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <f>A31/SUM(A31,A32)</f>
         <v>0.375</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <f>A31/SUM(A31,B31)</f>
         <v>4.9180327868852458E-2</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>26</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>35</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <f>SUM(I31+J32)/SUM(I31:J32)</f>
         <v>0.64646464646464652</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <f>SUM(I32,J31)/SUM(I31:J32)</f>
         <v>0.35353535353535354</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <f>I31/SUM(I31,I32)</f>
         <v>0.42622950819672129</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="8">
         <f>I31/SUM(I31,J31)</f>
         <v>0.42622950819672129</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="9">
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
         <v>0.42622950819672129</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="10">
         <v>39</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="11">
         <v>22</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S31" s="8">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
         <v>0.60101010101010099</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T31" s="8">
         <f>SUM(Q32,R31)/SUM(Q31:R32)</f>
         <v>0.39898989898989901</v>
       </c>
-      <c r="U31" s="9">
+      <c r="U31" s="8">
         <f>Q31/SUM(Q31,Q32)</f>
         <v>0.40625</v>
       </c>
-      <c r="V31" s="9">
+      <c r="V31" s="8">
         <f>Q31/SUM(Q31,R31)</f>
         <v>0.63934426229508201</v>
       </c>
-      <c r="W31" s="10">
+      <c r="W31" s="9">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
         <v>0.49681528662420388</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>5</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>132</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="I32" s="11">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="I32" s="10">
         <v>35</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>102</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
-      <c r="Q32" s="11">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
+      <c r="Q32" s="10">
         <v>57</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="11">
         <v>80</v>
       </c>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="10"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="10"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="10"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="9"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14">
         <f>SUM(C10:C31)/8</f>
         <v>0.67576332155573537</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <f>SUM(D10:D31)/8</f>
         <v>0.32423667844426463</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <f>SUM(E10:E31)/8</f>
         <v>0.30104166666666665</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <f>SUM(F10:F31)/8</f>
         <v>3.8197151906673367E-2</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <f>SUM(G10:G31)/8</f>
         <v>6.6461541262748502E-2</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15">
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14">
         <f>SUM(K10:K31)/8</f>
         <v>0.64062963158354447</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="14">
         <f>SUM(L10:L31)/8</f>
         <v>0.35937036841645542</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="14">
         <f>SUM(M10:M31)/8</f>
         <v>0.41596255006231253</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="14">
         <f>SUM(N10:N31)/8</f>
         <v>0.39426098332770543</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="15">
         <f>SUM(O10:O31)/8</f>
         <v>0.4031887202539135</v>
       </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="15">
+      <c r="Q34" s="12"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="14">
         <f>SUM(S10:S31)/8</f>
         <v>0.60258418882599429</v>
       </c>
-      <c r="T34" s="15">
+      <c r="T34" s="14">
         <f>SUM(T10:T31)/8</f>
         <v>0.39741581117400571</v>
       </c>
-      <c r="U34" s="15">
+      <c r="U34" s="14">
         <f>SUM(U10:U31)/8</f>
         <v>0.40800276179170009</v>
       </c>
-      <c r="V34" s="15">
+      <c r="V34" s="14">
         <f>SUM(V10:V31)/8</f>
         <v>0.63041877764166021</v>
       </c>
-      <c r="W34" s="16">
+      <c r="W34" s="15">
         <f>SUM(W10:W31)/8</f>
         <v>0.49466651589429944</v>
       </c>
@@ -1992,13 +2003,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2007,13 +2018,13 @@
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2022,1278 +2033,1278 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="I6" s="4" t="s">
+      <c r="B6" s="22"/>
+      <c r="I6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="Q6" s="4" t="s">
+      <c r="J6" s="23"/>
+      <c r="Q6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6" t="s">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>56</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>SUM(A9+B10)/SUM(A9:B10)</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f>SUM(A10,B9)/SUM(A9:B10)</f>
         <v>0.71212121212121215</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>A9/SUM(A9,A10)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>A9/SUM(A9,B9)</f>
         <v>0.98245614035087714</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f xml:space="preserve"> (2*E9*F9)/(F9+E9)</f>
         <v>0.44268774703557318</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>55</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <f>SUM(I9+J10)/SUM(I9:J10)</f>
         <v>0.34848484848484851</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <f>SUM(I10,J9)/SUM(I9:J10)</f>
         <v>0.65151515151515149</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <f>I9/SUM(I9,I10)</f>
         <v>0.30219780219780218</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <f>I9/SUM(I9,J9)</f>
         <v>0.96491228070175439</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <f xml:space="preserve"> (2*M9*N9)/(N9+M9)</f>
         <v>0.46025104602510458</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>52</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="11">
         <v>5</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <f>SUM(Q9+R10)/SUM(Q9:R10)</f>
         <v>0.31818181818181818</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <f>SUM(Q10,R9)/SUM(Q9:R10)</f>
         <v>0.68181818181818177</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="8">
         <f>Q9/SUM(Q9,Q10)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="8">
         <f>Q9/SUM(Q9,R9)</f>
         <v>0.91228070175438591</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="9">
         <f xml:space="preserve"> (2*U9*V9)/(V9+U9)</f>
         <v>0.43514644351464432</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>140</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="I10" s="11">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="I10" s="10">
         <v>127</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>14</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="Q10" s="11">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="Q10" s="10">
         <v>130</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="11">
         <v>11</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>66</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f>SUM(A12+B13)/SUM(A12:B13)</f>
         <v>0.3350253807106599</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f>SUM(A13,B12)/SUM(A12:B13)</f>
         <v>0.6649746192893401</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f>A12/SUM(A12,A13)</f>
         <v>0.3350253807106599</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f>A12/SUM(A12,B12)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>62</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>4</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <f>SUM(I12+J13)/SUM(I12:J13)</f>
         <v>0.35532994923857869</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <f>SUM(I13,J12)/SUM(I12:J13)</f>
         <v>0.64467005076142136</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <f>I12/SUM(I12,I13)</f>
         <v>0.33513513513513515</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <f>I12/SUM(I12,J12)</f>
         <v>0.93939393939393945</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <f xml:space="preserve"> (2*M12*N12)/(N12+M12)</f>
         <v>0.49402390438247012</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>58</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="11">
         <v>8</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <f>SUM(Q12+R13)/SUM(Q12:R13)</f>
         <v>0.36548223350253806</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <f>SUM(Q13,R12)/SUM(Q12:R13)</f>
         <v>0.63451776649746194</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="8">
         <f>Q12/SUM(Q12,Q13)</f>
         <v>0.33142857142857141</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <f>Q12/SUM(Q12,R12)</f>
         <v>0.87878787878787878</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="9">
         <f xml:space="preserve"> (2*U12*V12)/(V12+U12)</f>
         <v>0.48132780082987542</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>131</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="I13" s="11">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="10">
         <v>123</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>8</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="Q13" s="11">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="10">
         <v>117</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <v>14</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="10"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="10"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>62</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>0</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f>SUM(A15+B16)/SUM(A15:B16)</f>
         <v>0.3165829145728643</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <f>SUM(A16,B15)/SUM(A15:B16)</f>
         <v>0.68341708542713564</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f>A15/SUM(A15,A16)</f>
         <v>0.31313131313131315</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f>A15/SUM(A15,B15)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>0</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>56</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>5</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <f>SUM(I15+J16)/SUM(I15:J16)</f>
         <v>0.37688442211055279</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <f>SUM(I16,J15)/SUM(I15:J16)</f>
         <v>0.62311557788944727</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <f>I15/SUM(I15,I16)</f>
         <v>0.32</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <f>I15/SUM(I15,J15)</f>
         <v>0.91803278688524592</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <f xml:space="preserve"> (2*M15*N15)/(N15+M15)</f>
         <v>0.47457627118644069</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>55</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="11">
         <v>6</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <f>SUM(Q15+R16)/SUM(Q15:R16)</f>
         <v>0.34170854271356782</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="8">
         <f>SUM(Q16,R15)/SUM(Q15:R16)</f>
         <v>0.65829145728643212</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="8">
         <f>Q15/SUM(Q15,Q16)</f>
         <v>0.30555555555555558</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="8">
         <f>Q15/SUM(Q15,R15)</f>
         <v>0.90163934426229508</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="9">
         <f xml:space="preserve"> (2*U15*V15)/(V15+U15)</f>
         <v>0.45643153526970959</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>136</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="I16" s="11">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="10">
         <v>119</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>19</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="Q16" s="11">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="Q16" s="10">
         <v>125</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="11">
         <v>13</v>
       </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="10"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>61</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>0</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <f>SUM(A18+B19)/SUM(A18:B19)</f>
         <v>0.31155778894472363</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <f>SUM(A19,B18)/SUM(A18:B19)</f>
         <v>0.68844221105527637</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <f>A18/SUM(A18,A19)</f>
         <v>0.30808080808080807</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f>A18/SUM(A18,B18)</f>
         <v>1</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <f xml:space="preserve"> (2*E18*F18)/(F18+E18)</f>
         <v>0.47104247104247104</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>56</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>6</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <f>SUM(I18+J19)/SUM(I18:J19)</f>
         <v>0.36683417085427134</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <f>SUM(I19,J18)/SUM(I18:J19)</f>
         <v>0.63316582914572861</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <f>I18/SUM(I18,I19)</f>
         <v>0.31818181818181818</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <f>I18/SUM(I18,J18)</f>
         <v>0.90322580645161288</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <f xml:space="preserve"> (2*M18*N18)/(N18+M18)</f>
         <v>0.47058823529411759</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="10">
         <v>56</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="11">
         <v>6</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <f>SUM(Q18+R19)/SUM(Q18:R19)</f>
         <v>0.35678391959798994</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="8">
         <f>SUM(Q19,R18)/SUM(Q18:R19)</f>
         <v>0.64321608040201006</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="8">
         <f>Q18/SUM(Q18,Q19)</f>
         <v>0.3146067415730337</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="8">
         <f>Q18/SUM(Q18,R18)</f>
         <v>0.90322580645161288</v>
       </c>
-      <c r="W18" s="10">
+      <c r="W18" s="9">
         <f xml:space="preserve"> (2*U18*V18)/(V18+U18)</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>137</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="I19" s="11">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="10">
         <v>120</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>17</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="Q19" s="11">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="Q19" s="10">
         <v>122</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="11">
         <v>15</v>
       </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="10"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="10"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>72</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <f>SUM(A21+B22)/SUM(A21:B22)</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <f>SUM(A22,B21)/SUM(A21:B22)</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <f>A21/SUM(A21,A22)</f>
         <v>0.36734693877551022</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <f>A21/SUM(A21,B21)</f>
         <v>0.97297297297297303</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <f xml:space="preserve"> (2*E21*F21)/(F21+E21)</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>67</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>7</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <f>SUM(I21+J22)/SUM(I21:J22)</f>
         <v>0.39898989898989901</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <f>SUM(I22,J21)/SUM(I21:J22)</f>
         <v>0.60101010101010099</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <f>I21/SUM(I21,I22)</f>
         <v>0.37430167597765363</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <f>I21/SUM(I21,J21)</f>
         <v>0.90540540540540537</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <f xml:space="preserve"> (2*M21*N21)/(N21+M21)</f>
         <v>0.5296442687747035</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="10">
         <v>66</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <v>8</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="8">
         <f>SUM(Q21+R22)/SUM(Q21:R22)</f>
         <v>0.41919191919191917</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <f>SUM(Q22,R21)/SUM(Q21:R22)</f>
         <v>0.58080808080808077</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="8">
         <f>Q21/SUM(Q21,Q22)</f>
         <v>0.38150289017341038</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="8">
         <f>Q21/SUM(Q21,R21)</f>
         <v>0.89189189189189189</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="9">
         <f xml:space="preserve"> (2*U21*V21)/(V21+U21)</f>
         <v>0.53441295546558709</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>124</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>0</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="I22" s="11">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="I22" s="10">
         <v>112</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>12</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
-      <c r="Q22" s="11">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="Q22" s="10">
         <v>107</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <v>17</v>
       </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="10"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="10"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>57</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>0</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <f>SUM(A24+B25)/SUM(A24:B25)</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <f>SUM(A25,B24)/SUM(A24:B25)</f>
         <v>0.71212121212121215</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <f>A24/SUM(A24,A25)</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f>A24/SUM(A24,B24)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <f xml:space="preserve"> (2*E24*F24)/(F24+E24)</f>
         <v>0.44705882352941179</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>47</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <v>10</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <f>SUM(I24+J25)/SUM(I24:J25)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <f>SUM(I25,J24)/SUM(I24:J25)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <f>I24/SUM(I24,I25)</f>
         <v>0.27810650887573962</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <f>I24/SUM(I24,J24)</f>
         <v>0.82456140350877194</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="9">
         <f xml:space="preserve"> (2*M24*N24)/(N24+M24)</f>
         <v>0.41592920353982299</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="10">
         <v>50</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="11">
         <v>7</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="8">
         <f>SUM(Q24+R25)/SUM(Q24:R25)</f>
         <v>0.3383838383838384</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <f>SUM(Q25,R24)/SUM(Q24:R25)</f>
         <v>0.66161616161616166</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <f>Q24/SUM(Q24,Q25)</f>
         <v>0.28735632183908044</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="8">
         <f>Q24/SUM(Q24,R24)</f>
         <v>0.8771929824561403</v>
       </c>
-      <c r="W24" s="10">
+      <c r="W24" s="9">
         <f xml:space="preserve"> (2*U24*V24)/(V24+U24)</f>
         <v>0.4329004329004329</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>141</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>0</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="I25" s="11">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="I25" s="10">
         <v>122</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>19</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="10"/>
-      <c r="Q25" s="11">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9"/>
+      <c r="Q25" s="10">
         <v>124</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="11">
         <v>17</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="10"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="10"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>55</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>0</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <f>SUM(A27+B28)/SUM(A27:B28)</f>
         <v>0.28865979381443296</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <f t="shared" ref="D27:D30" si="0">SUM(A28,B27)/SUM(A27:B28)</f>
         <v>0.71134020618556704</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f>A27/SUM(A27,A28)</f>
         <v>0.28497409326424872</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <f>A27/SUM(A27,B27)</f>
         <v>1</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <f xml:space="preserve"> (2*E27*F27)/(F27+E27)</f>
         <v>0.44354838709677419</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>19</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <v>6</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <f>SUM(I27+J28)/SUM(I27:J28)</f>
         <v>0.23780487804878048</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <f t="shared" ref="L27" si="1">SUM(I28,J27)/SUM(I27:J28)</f>
         <v>0.76219512195121952</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
         <f>I27/SUM(I27,I28)</f>
         <v>0.13768115942028986</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <f>I27/SUM(I27,J27)</f>
         <v>0.76</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="9">
         <f xml:space="preserve"> (2*M27*N27)/(N27+M27)</f>
         <v>0.23312883435582823</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="10">
         <v>48</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="11">
         <v>7</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="8">
         <f>SUM(Q27+R28)/SUM(Q27:R28)</f>
         <v>0.35567010309278352</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="8">
         <f t="shared" ref="T27" si="2">SUM(Q28,R27)/SUM(Q27:R28)</f>
         <v>0.64432989690721654</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="8">
         <f>Q27/SUM(Q27,Q28)</f>
         <v>0.28915662650602408</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="8">
         <f>Q27/SUM(Q27,R27)</f>
         <v>0.87272727272727268</v>
       </c>
-      <c r="W27" s="10">
+      <c r="W27" s="9">
         <f xml:space="preserve"> (2*U27*V27)/(V27+U27)</f>
         <v>0.43438914027149317</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>138</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>1</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="I28" s="11">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="I28" s="10">
         <v>119</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>20</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="10"/>
-      <c r="Q28" s="11">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+      <c r="Q28" s="10">
         <v>118</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="11">
         <v>21</v>
       </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="10"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="10"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="9"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>60</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>1</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <f>SUM(A30+B31)/SUM(A30:B31)</f>
         <v>0.30303030303030304</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <f t="shared" si="0"/>
         <v>0.69696969696969702</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f>A30/SUM(A30,A31)</f>
         <v>0.30456852791878175</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f>A30/SUM(A30,B30)</f>
         <v>0.98360655737704916</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <f xml:space="preserve"> (2*E30*F30)/(F30+E30)</f>
         <v>0.46511627906976749</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <v>60</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>1</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <f>SUM(I30+J31)/SUM(I30:J31)</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <f>SUM(I31,J30)/SUM(I30:J31)</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <f>I30/SUM(I30,I31)</f>
         <v>0.32432432432432434</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <f>I30/SUM(I30,J30)</f>
         <v>0.98360655737704916</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <f xml:space="preserve"> (2*M30*N30)/(N30+M30)</f>
         <v>0.48780487804878048</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="10">
         <v>57</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="11">
         <v>4</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="8">
         <f>SUM(Q30+R31)/SUM(Q30:R31)</f>
         <v>0.34848484848484851</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T30" s="8">
         <f>SUM(Q31,R30)/SUM(Q30:R31)</f>
         <v>0.65151515151515149</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U30" s="8">
         <f>Q30/SUM(Q30,Q31)</f>
         <v>0.31318681318681318</v>
       </c>
-      <c r="V30" s="9">
+      <c r="V30" s="8">
         <f>Q30/SUM(Q30,R30)</f>
         <v>0.93442622950819676</v>
       </c>
-      <c r="W30" s="10">
+      <c r="W30" s="9">
         <f xml:space="preserve"> (2*U30*V30)/(V30+U30)</f>
         <v>0.46913580246913578</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>137</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>0</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="I31" s="11">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="I31" s="10">
         <v>125</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>12</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="10"/>
-      <c r="Q31" s="11">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
+      <c r="Q31" s="10">
         <v>125</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="11">
         <v>12</v>
       </c>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="10"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="10"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14">
         <f>SUM(C9:C30)/8</f>
         <v>0.31178126505836545</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <f>SUM(D9:D30)/8</f>
         <v>0.68821873494163466</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <f>SUM(E9:E30)/8</f>
         <v>0.31084001693429941</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <f>SUM(F9:F30)/8</f>
         <v>0.99237945883761247</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <f>SUM(G9:G30)/8</f>
         <v>0.35034838013841635</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15">
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14">
         <f>SUM(K9:K30)/8</f>
         <v>0.3476622330870785</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="14">
         <f>SUM(L9:L30)/8</f>
         <v>0.65233776691292156</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="14">
         <f>SUM(M9:M30)/8</f>
         <v>0.29874105301409537</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="14">
         <f>SUM(N9:N30)/8</f>
         <v>0.89989227246547243</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="15">
         <f>SUM(O9:O30)/8</f>
         <v>0.44574333020090851</v>
       </c>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="15">
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="14">
         <f>SUM(S9:S30)/8</f>
         <v>0.35548590289366294</v>
       </c>
-      <c r="T33" s="15">
+      <c r="T33" s="14">
         <f>SUM(T9:T30)/8</f>
         <v>0.64451409710633711</v>
       </c>
-      <c r="U33" s="15">
+      <c r="U33" s="14">
         <f>SUM(U9:U30)/8</f>
         <v>0.31356347574709675</v>
       </c>
-      <c r="V33" s="15">
+      <c r="V33" s="14">
         <f>SUM(V9:V30)/8</f>
         <v>0.89652151347995934</v>
       </c>
-      <c r="W33" s="16">
+      <c r="W33" s="15">
         <f>SUM(W9:W30)/8</f>
         <v>0.46380134717344312</v>
       </c>
@@ -3310,16 +3321,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8CE99F-AB1B-42D5-8433-860A234A6C99}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3366,10 +3377,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3414,13 +3425,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3440,7 +3451,7 @@
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3454,7 +3465,7 @@
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3465,10 +3476,93 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3477,6 +3571,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A24BDA-81EC-45D6-82C4-BA7313F1BE61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFDA701-C8DD-445E-8E39-BA8E0FB5E18A}">
   <dimension ref="A1:W33"/>
   <sheetViews>
@@ -3529,1261 +3635,1261 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="I6" s="4" t="s">
+      <c r="B6" s="22"/>
+      <c r="I6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="Q6" s="4" t="s">
+      <c r="J6" s="23"/>
+      <c r="Q6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6" t="s">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>56</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>SUM(A9+B10)/SUM(A9:B10)</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f>SUM(A10,B9)/SUM(A9:B10)</f>
         <v>0.71212121212121215</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>A9/SUM(A9,A10)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>A9/SUM(A9,B9)</f>
         <v>0.98245614035087714</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f xml:space="preserve"> (2*E9*F9)/(F9+E9)</f>
         <v>0.44268774703557318</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>5</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>52</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <f>SUM(I9+J10)/SUM(I9:J10)</f>
         <v>0.70707070707070707</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <f>SUM(I10,J9)/SUM(I9:J10)</f>
         <v>0.29292929292929293</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <f>I9/SUM(I9,I10)</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <f>I9/SUM(I9,J9)</f>
         <v>8.771929824561403E-2</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <f xml:space="preserve"> (2*M9*N9)/(N9+M9)</f>
         <v>0.14705882352941174</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>5</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="11">
         <v>52</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <f>SUM(Q9+R10)/SUM(Q9:R10)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <f>SUM(Q10,R9)/SUM(Q9:R10)</f>
         <v>0.30303030303030304</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="8">
         <f>Q9/SUM(Q9,Q10)</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="8">
         <f>Q9/SUM(Q9,R9)</f>
         <v>8.771929824561403E-2</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="9">
         <f xml:space="preserve"> (2*U9*V9)/(V9+U9)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>140</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="I10" s="11">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="I10" s="10">
         <v>6</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>135</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="Q10" s="11">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="Q10" s="10">
         <v>8</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="11">
         <v>133</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>66</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f>SUM(A12+B13)/SUM(A12:B13)</f>
         <v>0.3350253807106599</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f>SUM(A13,B12)/SUM(A12:B13)</f>
         <v>0.6649746192893401</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f>A12/SUM(A12,A13)</f>
         <v>0.3350253807106599</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f>A12/SUM(A12,B12)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>4</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>62</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <f>SUM(I12+J13)/SUM(I12:J13)</f>
         <v>0.62121212121212122</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <f>SUM(I13,J12)/SUM(I12:J13)</f>
         <v>0.37878787878787878</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <f>I12/SUM(I12,I13)</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <f>I12/SUM(I12,J12)</f>
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <f xml:space="preserve"> (2*M12*N12)/(N12+M12)</f>
         <v>9.6385542168674704E-2</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>6</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="11">
         <v>60</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <f>SUM(Q12+R13)/SUM(Q12:R13)</f>
         <v>0.64141414141414144</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <f>SUM(Q13,R12)/SUM(Q12:R13)</f>
         <v>0.35858585858585856</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="8">
         <f>Q12/SUM(Q12,Q13)</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <f>Q12/SUM(Q12,R12)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="9">
         <f xml:space="preserve"> (2*U12*V12)/(V12+U12)</f>
         <v>0.14457831325301207</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>131</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="I13" s="11">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="10">
         <v>13</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>119</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="Q13" s="11">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="10">
         <v>11</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <v>121</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="10"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="10"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>61</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>0</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f>SUM(A15+B16)/SUM(A15:B16)</f>
         <v>0.31155778894472363</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <f>SUM(A16,B15)/SUM(A15:B16)</f>
         <v>0.68844221105527637</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f>A15/SUM(A15,A16)</f>
         <v>0.30808080808080807</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f>A15/SUM(A15,B15)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>0</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>8</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>53</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <f>SUM(I15+J16)/SUM(I15:J16)</f>
         <v>0.70854271356783916</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <f>SUM(I16,J15)/SUM(I15:J16)</f>
         <v>0.29145728643216079</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <f>I15/SUM(I15,I16)</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <f>I15/SUM(I15,J15)</f>
         <v>0.13114754098360656</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <f xml:space="preserve"> (2*M15*N15)/(N15+M15)</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>8</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="11">
         <v>53</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <f>SUM(Q15+R16)/SUM(Q15:R16)</f>
         <v>0.70351758793969854</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="8">
         <f>SUM(Q16,R15)/SUM(Q15:R16)</f>
         <v>0.29648241206030151</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="8">
         <f>Q15/SUM(Q15,Q16)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="8">
         <f>Q15/SUM(Q15,R15)</f>
         <v>0.13114754098360656</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="9">
         <f xml:space="preserve"> (2*U15*V15)/(V15+U15)</f>
         <v>0.21333333333333332</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>137</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="I16" s="11">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="10">
         <v>5</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>133</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="Q16" s="11">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="Q16" s="10">
         <v>6</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="11">
         <v>132</v>
       </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="10"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>62</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>0</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <f>SUM(A18+B19)/SUM(A18:B19)</f>
         <v>0.3165829145728643</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <f>SUM(A19,B18)/SUM(A18:B19)</f>
         <v>0.68341708542713564</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <f>A18/SUM(A18,A19)</f>
         <v>0.31313131313131315</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f>A18/SUM(A18,B18)</f>
         <v>1</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <f xml:space="preserve"> (2*E18*F18)/(F18+E18)</f>
         <v>0.47692307692307695</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>10</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>52</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <f>SUM(I18+J19)/SUM(I18:J19)</f>
         <v>0.63819095477386933</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <f>SUM(I19,J18)/SUM(I18:J19)</f>
         <v>0.36180904522613067</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <f>I18/SUM(I18,I19)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <f>I18/SUM(I18,J18)</f>
         <v>0.16129032258064516</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <f xml:space="preserve"> (2*M18*N18)/(N18+M18)</f>
         <v>0.21739130434782605</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="10">
         <v>7</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="11">
         <v>55</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <f>SUM(Q18+R19)/SUM(Q18:R19)</f>
         <v>0.63819095477386933</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="8">
         <f>SUM(Q19,R18)/SUM(Q18:R19)</f>
         <v>0.36180904522613067</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="8">
         <f>Q18/SUM(Q18,Q19)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="8">
         <f>Q18/SUM(Q18,R18)</f>
         <v>0.11290322580645161</v>
       </c>
-      <c r="W18" s="10">
+      <c r="W18" s="9">
         <f xml:space="preserve"> (2*U18*V18)/(V18+U18)</f>
         <v>0.16279069767441859</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>136</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="I19" s="11">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="10">
         <v>20</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>117</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="Q19" s="11">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="Q19" s="10">
         <v>17</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="11">
         <v>120</v>
       </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="10"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="10"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>72</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <f>SUM(A21+B22)/SUM(A21:B22)</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <f>SUM(A22,B21)/SUM(A21:B22)</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <f>A21/SUM(A21,A22)</f>
         <v>0.36734693877551022</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <f>A21/SUM(A21,B21)</f>
         <v>0.97297297297297303</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <f xml:space="preserve"> (2*E21*F21)/(F21+E21)</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>8</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>66</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <f>SUM(I21+J22)/SUM(I21:J22)</f>
         <v>0.60101010101010099</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <f>SUM(I22,J21)/SUM(I21:J22)</f>
         <v>0.39898989898989901</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <f>I21/SUM(I21,I22)</f>
         <v>0.38095238095238093</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <f>I21/SUM(I21,J21)</f>
         <v>0.10810810810810811</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <f xml:space="preserve"> (2*M21*N21)/(N21+M21)</f>
         <v>0.16842105263157894</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="10">
         <v>7</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <v>67</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="8">
         <f>SUM(Q21+R22)/SUM(Q21:R22)</f>
         <v>0.59595959595959591</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <f>SUM(Q22,R21)/SUM(Q21:R22)</f>
         <v>0.40404040404040403</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="8">
         <f>Q21/SUM(Q21,Q22)</f>
         <v>0.35</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="8">
         <f>Q21/SUM(Q21,R21)</f>
         <v>9.45945945945946E-2</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="9">
         <f xml:space="preserve"> (2*U21*V21)/(V21+U21)</f>
         <v>0.14893617021276595</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>124</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>0</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="I22" s="11">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="I22" s="10">
         <v>13</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>111</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
-      <c r="Q22" s="11">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="Q22" s="10">
         <v>13</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <v>111</v>
       </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="10"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="10"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>57</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>0</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <f>SUM(A24+B25)/SUM(A24:B25)</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <f>SUM(A25,B24)/SUM(A24:B25)</f>
         <v>0.71212121212121215</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <f>A24/SUM(A24,A25)</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f>A24/SUM(A24,B24)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <f xml:space="preserve"> (2*E24*F24)/(F24+E24)</f>
         <v>0.44705882352941179</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>6</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <v>51</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <f>SUM(I24+J25)/SUM(I24:J25)</f>
         <v>0.6767676767676768</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <f>SUM(I25,J24)/SUM(I24:J25)</f>
         <v>0.32323232323232326</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <f>I24/SUM(I24,I25)</f>
         <v>0.31578947368421051</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <f>I24/SUM(I24,J24)</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="9">
         <f xml:space="preserve"> (2*M24*N24)/(N24+M24)</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="10">
         <v>6</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="11">
         <v>51</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="8">
         <f>SUM(Q24+R25)/SUM(Q24:R25)</f>
         <v>0.70202020202020199</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <f>SUM(Q25,R24)/SUM(Q24:R25)</f>
         <v>0.29797979797979796</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <f>Q24/SUM(Q24,Q25)</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="8">
         <f>Q24/SUM(Q24,R24)</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="W24" s="10">
+      <c r="W24" s="9">
         <f xml:space="preserve"> (2*U24*V24)/(V24+U24)</f>
         <v>0.16901408450704228</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>141</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>0</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="I25" s="11">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="I25" s="10">
         <v>13</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>128</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="10"/>
-      <c r="Q25" s="11">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9"/>
+      <c r="Q25" s="10">
         <v>8</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="11">
         <v>133</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="10"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="10"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>55</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>0</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <f>SUM(A27+B28)/SUM(A27:B28)</f>
         <v>0.28717948717948716</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <f t="shared" ref="D27:D30" si="0">SUM(A28,B27)/SUM(A27:B28)</f>
         <v>0.71282051282051284</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f>A27/SUM(A27,A28)</f>
         <v>0.28350515463917525</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <f>A27/SUM(A27,B27)</f>
         <v>1</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <f xml:space="preserve"> (2*E27*F27)/(F27+E27)</f>
         <v>0.44176706827309242</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>4</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <v>51</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <f>SUM(I27+J28)/SUM(I27:J28)</f>
         <v>0.67179487179487174</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <f t="shared" ref="L27" si="1">SUM(I28,J27)/SUM(I27:J28)</f>
         <v>0.3282051282051282</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
         <f>I27/SUM(I27,I28)</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <f>I27/SUM(I27,J27)</f>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="9">
         <f xml:space="preserve"> (2*M27*N27)/(N27+M27)</f>
         <v>0.11111111111111113</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="10">
         <v>7</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="11">
         <v>48</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="8">
         <f>SUM(Q27+R28)/SUM(Q27:R28)</f>
         <v>0.67179487179487174</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="8">
         <f t="shared" ref="T27" si="2">SUM(Q28,R27)/SUM(Q27:R28)</f>
         <v>0.3282051282051282</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="8">
         <f>Q27/SUM(Q27,Q28)</f>
         <v>0.30434782608695654</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="8">
         <f>Q27/SUM(Q27,R27)</f>
         <v>0.12727272727272726</v>
       </c>
-      <c r="W27" s="10">
+      <c r="W27" s="9">
         <f xml:space="preserve"> (2*U27*V27)/(V27+U27)</f>
         <v>0.17948717948717949</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>139</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>1</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="I28" s="11">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="I28" s="10">
         <v>13</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>127</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="10"/>
-      <c r="Q28" s="11">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+      <c r="Q28" s="10">
         <v>16</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="11">
         <v>124</v>
       </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="10"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="10"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="9"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>60</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>1</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <f>SUM(A30+B31)/SUM(A30:B31)</f>
         <v>0.30303030303030304</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <f t="shared" si="0"/>
         <v>0.69696969696969702</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f>A30/SUM(A30,A31)</f>
         <v>0.30456852791878175</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f>A30/SUM(A30,B30)</f>
         <v>0.98360655737704916</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <f xml:space="preserve"> (2*E30*F30)/(F30+E30)</f>
         <v>0.46511627906976749</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <v>7</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>54</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <f>SUM(I30+J31)/SUM(I30:J31)</f>
         <v>0.70202020202020199</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <f>SUM(I31,J30)/SUM(I30:J31)</f>
         <v>0.29797979797979796</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <f>I30/SUM(I30,I31)</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <f>I30/SUM(I30,J30)</f>
         <v>0.11475409836065574</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <f xml:space="preserve"> (2*M30*N30)/(N30+M30)</f>
         <v>0.19178082191780821</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="10">
         <v>7</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="11">
         <v>54</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="8">
         <f>SUM(Q30+R31)/SUM(Q30:R31)</f>
         <v>0.68181818181818177</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T30" s="8">
         <f>SUM(Q31,R30)/SUM(Q30:R31)</f>
         <v>0.31818181818181818</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U30" s="8">
         <f>Q30/SUM(Q30,Q31)</f>
         <v>0.4375</v>
       </c>
-      <c r="V30" s="9">
+      <c r="V30" s="8">
         <f>Q30/SUM(Q30,R30)</f>
         <v>0.11475409836065574</v>
       </c>
-      <c r="W30" s="10">
+      <c r="W30" s="9">
         <f xml:space="preserve"> (2*U30*V30)/(V30+U30)</f>
         <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>137</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>0</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="I31" s="11">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="I31" s="10">
         <v>5</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>132</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="10"/>
-      <c r="Q31" s="11">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
+      <c r="Q31" s="10">
         <v>9</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="11">
         <v>128</v>
       </c>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="10"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="10"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14">
         <f>SUM(C9:C30)/8</f>
         <v>0.31159622672899723</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <f>SUM(D9:D30)/8</f>
         <v>0.68840377327100277</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <f>SUM(E9:E30)/8</f>
         <v>0.31065639960616526</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <f>SUM(F9:F30)/8</f>
         <v>0.99237945883761247</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <f>SUM(G9:G30)/8</f>
         <v>0.35086079102053186</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15">
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14">
         <f>SUM(K9:K30)/8</f>
         <v>0.66582616852717358</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="14">
         <f>SUM(L9:L30)/8</f>
         <v>0.33417383147282648</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="14">
         <f>SUM(M9:M30)/8</f>
         <v>0.39424085331593078</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="14">
         <f>SUM(N9:N30)/8</f>
         <v>0.10520198243833748</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="15">
         <f>SUM(O9:O30)/8</f>
         <v>0.16328245109559153</v>
       </c>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="15">
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="14">
         <f>SUM(S9:S30)/8</f>
         <v>0.66646065408628219</v>
       </c>
-      <c r="T33" s="15">
+      <c r="T33" s="14">
         <f>SUM(T9:T30)/8</f>
         <v>0.33353934591371781</v>
       </c>
-      <c r="U33" s="15">
+      <c r="U33" s="14">
         <f>SUM(U9:U30)/8</f>
         <v>0.39013388172994951</v>
       </c>
-      <c r="V33" s="15">
+      <c r="V33" s="14">
         <f>SUM(V9:V30)/8</f>
         <v>0.10807046675843469</v>
       </c>
-      <c r="W33" s="16">
+      <c r="W33" s="15">
         <f>SUM(W9:W30)/8</f>
         <v>0.16785188789288455</v>
       </c>

--- a/testes/svm.xlsx
+++ b/testes/svm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979260FA-15A0-460F-8677-9F898F932E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4DCC5F-2F78-4B21-A884-9DB2DE3734E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>HOG</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>COMB</t>
+  </si>
+  <si>
+    <t>PCA 5</t>
+  </si>
+  <si>
+    <t>PCA 7</t>
+  </si>
+  <si>
+    <t>PCA 9</t>
+  </si>
+  <si>
+    <t>0.7</t>
   </si>
 </sst>
 </file>
@@ -275,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,6 +346,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A9FFC0-4EA9-4DAB-A402-2F4F77CE1FBA}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,18 +726,18 @@
       <c r="D4" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="I7" s="23" t="s">
+      <c r="B7" s="23"/>
+      <c r="I7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="Q7" s="23" t="s">
+      <c r="J7" s="24"/>
+      <c r="Q7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="23"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -2050,18 +2065,18 @@
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="I6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="I6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="Q6" s="23" t="s">
+      <c r="J6" s="24"/>
+      <c r="Q6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="23"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3321,10 +3336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8CE99F-AB1B-42D5-8433-860A234A6C99}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,7 +3448,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="21"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3447,7 +3462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3461,7 +3476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -3475,13 +3490,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3495,7 +3510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -3509,7 +3524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -3523,7 +3538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -3536,32 +3551,69 @@
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
     </row>
   </sheetData>
@@ -3635,18 +3687,18 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="I6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="I6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="Q6" s="23" t="s">
+      <c r="J6" s="24"/>
+      <c r="Q6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="23"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/testes/svm.xlsx
+++ b/testes/svm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8845E5-B3F0-4F8B-9356-C4BC95A9EA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63213144-792D-40E4-A69A-9C3E50345628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="1" r:id="rId1"/>
@@ -388,13 +388,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,18 +766,18 @@
       <c r="D4" s="15"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="I7" s="31" t="s">
+      <c r="B7" s="31"/>
+      <c r="I7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="Q7" s="31" t="s">
+      <c r="J7" s="32"/>
+      <c r="Q7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="31"/>
+      <c r="R7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -2353,18 +2353,18 @@
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="I6" s="31" t="s">
+      <c r="B6" s="31"/>
+      <c r="I6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="Q6" s="31" t="s">
+      <c r="J6" s="32"/>
+      <c r="Q6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="31"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4217,18 +4217,18 @@
       <c r="D4" s="15"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="I7" s="31" t="s">
+      <c r="B7" s="31"/>
+      <c r="I7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="Q7" s="31" t="s">
+      <c r="J7" s="32"/>
+      <c r="Q7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="31"/>
+      <c r="R7" s="32"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -5723,7 +5723,7 @@
       <c r="A39" s="24"/>
       <c r="G39" s="25"/>
       <c r="I39" s="24"/>
-      <c r="J39" s="32"/>
+      <c r="J39" s="30"/>
       <c r="O39" s="25"/>
       <c r="Q39" s="24"/>
       <c r="W39" s="25"/>
@@ -5811,8 +5811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7633C9-1321-4BA4-B8FD-E320CD2D249F}">
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5893,18 +5893,18 @@
       <c r="D4" s="15"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="I7" s="31" t="s">
+      <c r="B7" s="31"/>
+      <c r="I7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="Q7" s="31" t="s">
+      <c r="J7" s="32"/>
+      <c r="Q7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="31"/>
+      <c r="R7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -5983,49 +5983,57 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="23" t="e">
+      <c r="A10" s="9">
+        <v>53</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
         <f>SUM(A10+B11)/SUM(A10:B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="23" t="e">
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="D10" s="23">
         <f>SUM(A11,B10)/SUM(A10:B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="23" t="e">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="E10" s="23">
         <f>A10/SUM(A10,A11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="23" t="e">
+        <v>0.33544303797468356</v>
+      </c>
+      <c r="F10" s="23">
         <f>A10/SUM(A10,B10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
         <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="23" t="e">
+        <v>0.50236966824644547</v>
+      </c>
+      <c r="I10" s="9">
+        <v>50</v>
+      </c>
+      <c r="J10" s="10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="23">
         <f>SUM(I10+J11)/SUM(I10:J11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="23" t="e">
+        <v>0.4088050314465409</v>
+      </c>
+      <c r="L10" s="23">
         <f>SUM(I11,J10)/SUM(I10:J11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="23" t="e">
+        <v>0.5911949685534591</v>
+      </c>
+      <c r="M10" s="23">
         <f>I10/SUM(I10,I11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="23" t="e">
+        <v>0.3546099290780142</v>
+      </c>
+      <c r="N10" s="23">
         <f>I10/SUM(I10,J10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="8" t="e">
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="O10" s="8">
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
-        <v>#DIV/0!</v>
+        <v>0.51546391752577314</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
@@ -6051,15 +6059,23 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="9">
+        <v>105</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="9">
+        <v>91</v>
+      </c>
+      <c r="J11" s="10">
+        <v>15</v>
+      </c>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
@@ -6097,49 +6113,57 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="23" t="e">
+      <c r="A13" s="9">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23">
         <f>SUM(A13+B14)/SUM(A13:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="23" t="e">
+        <v>0.31446540880503143</v>
+      </c>
+      <c r="D13" s="23">
         <f>SUM(A14,B13)/SUM(A13:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="23" t="e">
+        <v>0.68553459119496851</v>
+      </c>
+      <c r="E13" s="23">
         <f>A13/SUM(A13,A14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="23" t="e">
+        <v>0.31210191082802546</v>
+      </c>
+      <c r="F13" s="23">
         <f>A13/SUM(A13,B13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="8" t="e">
+        <v>0.98</v>
+      </c>
+      <c r="G13" s="8">
         <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="23" t="e">
+        <v>0.4734299516908213</v>
+      </c>
+      <c r="I13" s="9">
+        <v>46</v>
+      </c>
+      <c r="J13" s="10">
+        <v>4</v>
+      </c>
+      <c r="K13" s="23">
         <f>SUM(I13+J14)/SUM(I13:J14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="23" t="e">
+        <v>0.3522012578616352</v>
+      </c>
+      <c r="L13" s="23">
         <f>SUM(I14,J13)/SUM(I13:J14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="23" t="e">
+        <v>0.64779874213836475</v>
+      </c>
+      <c r="M13" s="23">
         <f>I13/SUM(I13,I14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="23" t="e">
+        <v>0.31724137931034485</v>
+      </c>
+      <c r="N13" s="23">
         <f>I13/SUM(I13,J13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="8" t="e">
+        <v>0.92</v>
+      </c>
+      <c r="O13" s="8">
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.47179487179487178</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
@@ -6165,15 +6189,23 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="9">
+        <v>108</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="9">
+        <v>99</v>
+      </c>
+      <c r="J14" s="10">
+        <v>10</v>
+      </c>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
@@ -6211,49 +6243,57 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="23" t="e">
+      <c r="A16" s="9">
+        <v>45</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="23">
         <f>SUM(A16+B17)/SUM(A16:B17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="23" t="e">
+        <v>0.29113924050632911</v>
+      </c>
+      <c r="D16" s="23">
         <f>SUM(A17,B16)/SUM(A16:B17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="23" t="e">
+        <v>0.70886075949367089</v>
+      </c>
+      <c r="E16" s="23">
         <f>A16/SUM(A16,A17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="23" t="e">
+        <v>0.28662420382165604</v>
+      </c>
+      <c r="F16" s="23">
         <f>A16/SUM(A16,B16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
         <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="23" t="e">
+        <v>0.44554455445544555</v>
+      </c>
+      <c r="I16" s="9">
+        <v>41</v>
+      </c>
+      <c r="J16" s="10">
+        <v>4</v>
+      </c>
+      <c r="K16" s="23">
         <f>SUM(I16+J17)/SUM(I16:J17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="23" t="e">
+        <v>0.32911392405063289</v>
+      </c>
+      <c r="L16" s="23">
         <f>SUM(I17,J16)/SUM(I16:J17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="23" t="e">
+        <v>0.67088607594936711</v>
+      </c>
+      <c r="M16" s="23">
         <f>I16/SUM(I16,I17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="23" t="e">
+        <v>0.28671328671328672</v>
+      </c>
+      <c r="N16" s="23">
         <f>I16/SUM(I16,J16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="8" t="e">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="O16" s="8">
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.43617021276595741</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
@@ -6279,15 +6319,23 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="9">
+        <v>112</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="9">
+        <v>102</v>
+      </c>
+      <c r="J17" s="10">
+        <v>11</v>
+      </c>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
@@ -6325,49 +6373,57 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="23" t="e">
+      <c r="A19" s="9">
+        <v>55</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23">
         <f>SUM(A19+B20)/SUM(A19:B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="23" t="e">
+        <v>0.34810126582278483</v>
+      </c>
+      <c r="D19" s="23">
         <f>SUM(A20,B19)/SUM(A19:B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="23" t="e">
+        <v>0.65189873417721522</v>
+      </c>
+      <c r="E19" s="23">
         <f>A19/SUM(A19,A20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="23" t="e">
+        <v>0.34810126582278483</v>
+      </c>
+      <c r="F19" s="23">
         <f>A19/SUM(A19,B19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
         <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="23" t="e">
+        <v>0.51643192488262912</v>
+      </c>
+      <c r="I19" s="9">
+        <v>53</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2</v>
+      </c>
+      <c r="K19" s="23">
         <f>SUM(I19+J20)/SUM(I19:J20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="23" t="e">
+        <v>0.41772151898734178</v>
+      </c>
+      <c r="L19" s="23">
         <f>SUM(I20,J19)/SUM(I19:J20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="23" t="e">
+        <v>0.58227848101265822</v>
+      </c>
+      <c r="M19" s="23">
         <f>I19/SUM(I19,I20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="23" t="e">
+        <v>0.37062937062937062</v>
+      </c>
+      <c r="N19" s="23">
         <f>I19/SUM(I19,J19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="8" t="e">
+        <v>0.96363636363636362</v>
+      </c>
+      <c r="O19" s="8">
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.53535353535353536</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="10"/>
@@ -6393,15 +6449,23 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="9">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="I20" s="9">
+        <v>90</v>
+      </c>
+      <c r="J20" s="10">
+        <v>13</v>
+      </c>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
@@ -6439,49 +6503,57 @@
       <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="23" t="e">
+      <c r="A22" s="9">
+        <v>44</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="23">
         <f>SUM(A22+B23)/SUM(A22:B23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="23" t="e">
+        <v>0.2848101265822785</v>
+      </c>
+      <c r="D22" s="23">
         <f>SUM(A23,B22)/SUM(A22:B23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="23" t="e">
+        <v>0.71518987341772156</v>
+      </c>
+      <c r="E22" s="23">
         <f>A22/SUM(A22,A23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="23" t="e">
+        <v>0.28025477707006369</v>
+      </c>
+      <c r="F22" s="23">
         <f>A22/SUM(A22,B22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
         <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="23" t="e">
+        <v>0.43781094527363185</v>
+      </c>
+      <c r="I22" s="9">
+        <v>44</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="23">
         <f>SUM(I22+J23)/SUM(I22:J23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="23" t="e">
+        <v>0.36075949367088606</v>
+      </c>
+      <c r="L22" s="23">
         <f>SUM(I23,J22)/SUM(I22:J23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="23" t="e">
+        <v>0.63924050632911389</v>
+      </c>
+      <c r="M22" s="23">
         <f>I22/SUM(I22,I23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="23" t="e">
+        <v>0.30344827586206896</v>
+      </c>
+      <c r="N22" s="23">
         <f>I22/SUM(I22,J22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.46560846560846564</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="10"/>
@@ -6507,15 +6579,23 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="9">
+        <v>113</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="9">
+        <v>101</v>
+      </c>
+      <c r="J23" s="10">
+        <v>13</v>
+      </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
@@ -6553,49 +6633,57 @@
       <c r="W24" s="8"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="23" t="e">
+      <c r="A25" s="9">
+        <v>58</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="23">
         <f>SUM(A25+B26)/SUM(A25:B26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="23" t="e">
+        <v>0.36708860759493672</v>
+      </c>
+      <c r="D25" s="23">
         <f>SUM(A26,B25)/SUM(A25:B26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="23" t="e">
+        <v>0.63291139240506333</v>
+      </c>
+      <c r="E25" s="23">
         <f>A25/SUM(A25,A26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="23" t="e">
+        <v>0.36942675159235666</v>
+      </c>
+      <c r="F25" s="23">
         <f>A25/SUM(A25,B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="8" t="e">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="G25" s="8">
         <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="23" t="e">
+        <v>0.53703703703703698</v>
+      </c>
+      <c r="I25" s="9">
+        <v>54</v>
+      </c>
+      <c r="J25" s="10">
+        <v>5</v>
+      </c>
+      <c r="K25" s="23">
         <f>SUM(I25+J26)/SUM(I25:J26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="23" t="e">
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="L25" s="23">
         <f>SUM(I26,J25)/SUM(I25:J26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="23" t="e">
+        <v>0.60759493670886078</v>
+      </c>
+      <c r="M25" s="23">
         <f>I25/SUM(I25,I26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="23" t="e">
+        <v>0.3724137931034483</v>
+      </c>
+      <c r="N25" s="23">
         <f>I25/SUM(I25,J25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="8" t="e">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="O25" s="8">
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
-        <v>#DIV/0!</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="10"/>
@@ -6621,15 +6709,23 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="9">
+        <v>99</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="8"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="I26" s="9">
+        <v>91</v>
+      </c>
+      <c r="J26" s="10">
+        <v>8</v>
+      </c>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
@@ -6667,49 +6763,57 @@
       <c r="W27" s="8"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="23" t="e">
+      <c r="A28" s="9">
+        <v>44</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="23">
         <f>SUM(A28+B29)/SUM(A28:B29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="23" t="e">
+        <v>0.2848101265822785</v>
+      </c>
+      <c r="D28" s="23">
         <f t="shared" ref="D28" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="23" t="e">
+        <v>0.71518987341772156</v>
+      </c>
+      <c r="E28" s="23">
         <f>A28/SUM(A28,A29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="23" t="e">
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="F28" s="23">
         <f>A28/SUM(A28,B28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="8" t="e">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="G28" s="8">
         <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="23" t="e">
+        <v>0.43781094527363185</v>
+      </c>
+      <c r="I28" s="9">
+        <v>38</v>
+      </c>
+      <c r="J28" s="10">
+        <v>7</v>
+      </c>
+      <c r="K28" s="23">
         <f>SUM(I28+J29)/SUM(I28:J29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="23" t="e">
+        <v>0.30379746835443039</v>
+      </c>
+      <c r="L28" s="23">
         <f t="shared" ref="L28" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="23" t="e">
+        <v>0.69620253164556967</v>
+      </c>
+      <c r="M28" s="23">
         <f>I28/SUM(I28,I29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="23" t="e">
+        <v>0.26950354609929078</v>
+      </c>
+      <c r="N28" s="23">
         <f>I28/SUM(I28,J28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="8" t="e">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="O28" s="8">
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
-        <v>#DIV/0!</v>
+        <v>0.40860215053763438</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="10"/>
@@ -6735,15 +6839,23 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="9">
+        <v>112</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="8"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
+      <c r="I29" s="9">
+        <v>103</v>
+      </c>
+      <c r="J29" s="10">
+        <v>10</v>
+      </c>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
@@ -6781,49 +6893,57 @@
       <c r="W30" s="8"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="23" t="e">
+      <c r="A31" s="9">
+        <v>45</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="23">
         <f>SUM(A31+B32)/SUM(A31:B32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="23" t="e">
+        <v>0.29746835443037972</v>
+      </c>
+      <c r="D31" s="23">
         <f t="shared" ref="D31" si="3">SUM(A32,B31)/SUM(A31:B32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="23" t="e">
+        <v>0.70253164556962022</v>
+      </c>
+      <c r="E31" s="23">
         <f>A31/SUM(A31,A32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="23" t="e">
+        <v>0.28846153846153844</v>
+      </c>
+      <c r="F31" s="23">
         <f>A31/SUM(A31,B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
         <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="23" t="e">
+        <v>0.44776119402985076</v>
+      </c>
+      <c r="I31" s="9">
+        <v>42</v>
+      </c>
+      <c r="J31" s="10">
+        <v>3</v>
+      </c>
+      <c r="K31" s="23">
         <f>SUM(I31+J32)/SUM(I31:J32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="23" t="e">
+        <v>0.39240506329113922</v>
+      </c>
+      <c r="L31" s="23">
         <f t="shared" ref="L31" si="4">SUM(I32,J31)/SUM(I31:J32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="23" t="e">
+        <v>0.60759493670886078</v>
+      </c>
+      <c r="M31" s="23">
         <f>I31/SUM(I31,I32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="23" t="e">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="N31" s="23">
         <f>I31/SUM(I31,J31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="8" t="e">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="O31" s="8">
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
-        <v>#DIV/0!</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="10"/>
@@ -6849,15 +6969,23 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="9">
+        <v>111</v>
+      </c>
+      <c r="B32" s="10">
+        <v>2</v>
+      </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="8"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
+      <c r="I32" s="9">
+        <v>93</v>
+      </c>
+      <c r="J32" s="10">
+        <v>20</v>
+      </c>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
       <c r="M32" s="23"/>
@@ -6895,49 +7023,57 @@
       <c r="W33" s="8"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="23" t="e">
+      <c r="A34" s="9">
+        <v>49</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="23">
         <f>SUM(A34+B35)/SUM(A34:B35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" s="23" t="e">
+        <v>0.31645569620253167</v>
+      </c>
+      <c r="D34" s="23">
         <f t="shared" ref="D34" si="6">SUM(A35,B34)/SUM(A34:B35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" s="23" t="e">
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="E34" s="23">
         <f>A34/SUM(A34,A35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="23" t="e">
+        <v>0.31210191082802546</v>
+      </c>
+      <c r="F34" s="23">
         <f>A34/SUM(A34,B34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
         <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="23" t="e">
+        <v>0.47572815533980584</v>
+      </c>
+      <c r="I34" s="9">
+        <v>45</v>
+      </c>
+      <c r="J34" s="10">
+        <v>4</v>
+      </c>
+      <c r="K34" s="23">
         <f>SUM(I34+J35)/SUM(I34:J35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="23" t="e">
+        <v>0.36708860759493672</v>
+      </c>
+      <c r="L34" s="23">
         <f t="shared" ref="L34" si="7">SUM(I35,J34)/SUM(I34:J35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="23" t="e">
+        <v>0.63291139240506333</v>
+      </c>
+      <c r="M34" s="23">
         <f>I34/SUM(I34,I35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="23" t="e">
+        <v>0.31914893617021278</v>
+      </c>
+      <c r="N34" s="23">
         <f>I34/SUM(I34,J34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="8" t="e">
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="O34" s="8">
         <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
-        <v>#DIV/0!</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="10"/>
@@ -6963,15 +7099,23 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="9">
+        <v>108</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="8"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
+      <c r="I35" s="9">
+        <v>96</v>
+      </c>
+      <c r="J35" s="10">
+        <v>13</v>
+      </c>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
@@ -6994,49 +7138,57 @@
       <c r="W36" s="25"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="23" t="e">
+      <c r="A37" s="9">
+        <v>47</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="23">
         <f>SUM(A37+B38)/SUM(A37:B38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="23" t="e">
+        <v>0.29746835443037972</v>
+      </c>
+      <c r="D37" s="23">
         <f t="shared" ref="D37" si="9">SUM(A38,B37)/SUM(A37:B38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="23" t="e">
+        <v>0.70253164556962022</v>
+      </c>
+      <c r="E37" s="23">
         <f>A37/SUM(A37,A38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="23" t="e">
+        <v>0.29936305732484075</v>
+      </c>
+      <c r="F37" s="23">
         <f>A37/SUM(A37,B37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="8" t="e">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="G37" s="8">
         <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="23" t="e">
+        <v>0.45853658536585362</v>
+      </c>
+      <c r="I37" s="9">
+        <v>45</v>
+      </c>
+      <c r="J37" s="10">
+        <v>3</v>
+      </c>
+      <c r="K37" s="23">
         <f>SUM(I37+J38)/SUM(I37:J38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="23" t="e">
+        <v>0.379746835443038</v>
+      </c>
+      <c r="L37" s="23">
         <f t="shared" ref="L37" si="10">SUM(I38,J37)/SUM(I37:J38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="23" t="e">
+        <v>0.620253164556962</v>
+      </c>
+      <c r="M37" s="23">
         <f>I37/SUM(I37,I38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="23" t="e">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="N37" s="23">
         <f>I37/SUM(I37,J37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="8" t="e">
+        <v>0.9375</v>
+      </c>
+      <c r="O37" s="8">
         <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
-        <v>#DIV/0!</v>
+        <v>0.47872340425531923</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
@@ -7062,15 +7214,23 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="9">
+        <v>110</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0</v>
+      </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="8"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
+      <c r="I38" s="9">
+        <v>95</v>
+      </c>
+      <c r="J38" s="10">
+        <v>15</v>
+      </c>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
@@ -7088,7 +7248,7 @@
       <c r="A39" s="24"/>
       <c r="G39" s="25"/>
       <c r="I39" s="24"/>
-      <c r="J39" s="32"/>
+      <c r="J39" s="30"/>
       <c r="O39" s="25"/>
       <c r="Q39" s="24"/>
       <c r="W39" s="25"/>
@@ -7096,47 +7256,47 @@
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
-      <c r="C40" s="11" t="e">
+      <c r="C40" s="11">
         <f>SUM(C10:C37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="11" t="e">
+        <v>0.31414298224663634</v>
+      </c>
+      <c r="D40" s="11">
         <f>SUM(D10:D37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="11" t="e">
+        <v>0.68585701775336361</v>
+      </c>
+      <c r="E40" s="11">
         <f>SUM(E10:E37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="11" t="e">
+        <v>0.31139297357752571</v>
+      </c>
+      <c r="F40" s="11">
         <f>SUM(F10:F37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="12" t="e">
+        <v>0.99199952919020706</v>
+      </c>
+      <c r="G40" s="12">
         <f>SUM(G10:G37)/10</f>
-        <v>#DIV/0!</v>
+        <v>0.47324609615951518</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="11" t="e">
+      <c r="K40" s="11">
         <f>SUM(K10:K37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="11" t="e">
+        <v>0.37040442639917204</v>
+      </c>
+      <c r="L40" s="11">
         <f>SUM(L10:L37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="11" t="e">
+        <v>0.62959557360082785</v>
+      </c>
+      <c r="M40" s="11">
         <f>SUM(M10:M37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="11" t="e">
+        <v>0.32262481995057202</v>
+      </c>
+      <c r="N40" s="11">
         <f>SUM(N10:N37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="12" t="e">
+        <v>0.92870430631672585</v>
+      </c>
+      <c r="O40" s="12">
         <f>SUM(O10:O37)/10</f>
-        <v>#DIV/0!</v>
+        <v>0.47814791997404216</v>
       </c>
       <c r="Q40" s="26"/>
       <c r="R40" s="27"/>
@@ -7162,18 +7322,18 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="I44" s="31" t="s">
+      <c r="B44" s="31"/>
+      <c r="I44" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="31"/>
-      <c r="Q44" s="31" t="s">
+      <c r="J44" s="32"/>
+      <c r="Q44" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="31"/>
+      <c r="R44" s="32"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -8357,7 +8517,7 @@
       <c r="A76" s="24"/>
       <c r="G76" s="25"/>
       <c r="I76" s="24"/>
-      <c r="J76" s="32"/>
+      <c r="J76" s="30"/>
       <c r="O76" s="25"/>
       <c r="Q76" s="24"/>
       <c r="W76" s="25"/>
@@ -8496,18 +8656,18 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="I6" s="31" t="s">
+      <c r="B6" s="31"/>
+      <c r="I6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="Q6" s="31" t="s">
+      <c r="J6" s="32"/>
+      <c r="Q6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="31"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/testes/svm.xlsx
+++ b/testes/svm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63213144-792D-40E4-A69A-9C3E50345628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D66BD-5576-455F-9B6F-771D5335EC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
   </bookViews>
@@ -5811,8 +5811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7633C9-1321-4BA4-B8FD-E320CD2D249F}">
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6035,27 +6035,31 @@
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
         <v>0.51546391752577314</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="23" t="e">
+      <c r="Q10" s="9">
+        <v>20</v>
+      </c>
+      <c r="R10" s="10">
+        <v>33</v>
+      </c>
+      <c r="S10" s="23">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="23" t="e">
+        <v>0.49056603773584906</v>
+      </c>
+      <c r="T10" s="23">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" s="23" t="e">
+        <v>0.50943396226415094</v>
+      </c>
+      <c r="U10" s="23">
         <f>Q10/SUM(Q10,Q11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" s="23" t="e">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="V10" s="23">
         <f>Q10/SUM(Q10,R10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" s="8" t="e">
+        <v>0.37735849056603776</v>
+      </c>
+      <c r="W10" s="8">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>#DIV/0!</v>
+        <v>0.33057851239669428</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -6081,8 +6085,12 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="8"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
+      <c r="Q11" s="9">
+        <v>48</v>
+      </c>
+      <c r="R11" s="10">
+        <v>58</v>
+      </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
@@ -6165,27 +6173,31 @@
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
         <v>0.47179487179487178</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="23" t="e">
+      <c r="Q13" s="9">
+        <v>32</v>
+      </c>
+      <c r="R13" s="10">
+        <v>18</v>
+      </c>
+      <c r="S13" s="23">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="23" t="e">
+        <v>0.51572327044025157</v>
+      </c>
+      <c r="T13" s="23">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" s="23" t="e">
+        <v>0.48427672955974843</v>
+      </c>
+      <c r="U13" s="23">
         <f>Q13/SUM(Q13,Q14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="23" t="e">
+        <v>0.35164835164835168</v>
+      </c>
+      <c r="V13" s="23">
         <f>Q13/SUM(Q13,R13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" s="8" t="e">
+        <v>0.64</v>
+      </c>
+      <c r="W13" s="8">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>#DIV/0!</v>
+        <v>0.4539007092198582</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -6211,8 +6223,12 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="8"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="10"/>
+      <c r="Q14" s="9">
+        <v>59</v>
+      </c>
+      <c r="R14" s="10">
+        <v>50</v>
+      </c>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
       <c r="U14" s="23"/>
@@ -6295,27 +6311,31 @@
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
         <v>0.43617021276595741</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="23" t="e">
+      <c r="Q16" s="9">
+        <v>17</v>
+      </c>
+      <c r="R16" s="10">
+        <v>28</v>
+      </c>
+      <c r="S16" s="23">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="23" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="23">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="23" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="23">
         <f>Q16/SUM(Q16,Q17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="23" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="V16" s="23">
         <f>Q16/SUM(Q16,R16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" s="8" t="e">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="W16" s="8">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>#DIV/0!</v>
+        <v>0.30088495575221241</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -6341,8 +6361,12 @@
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="8"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
+      <c r="Q17" s="9">
+        <v>51</v>
+      </c>
+      <c r="R17" s="10">
+        <v>62</v>
+      </c>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
@@ -6425,27 +6449,31 @@
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
         <v>0.53535353535353536</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="23" t="e">
+      <c r="Q19" s="9">
+        <v>24</v>
+      </c>
+      <c r="R19" s="10">
+        <v>31</v>
+      </c>
+      <c r="S19" s="23">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="23" t="e">
+        <v>0.51265822784810122</v>
+      </c>
+      <c r="T19" s="23">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="23" t="e">
+        <v>0.48734177215189872</v>
+      </c>
+      <c r="U19" s="23">
         <f>Q19/SUM(Q19,Q20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="23" t="e">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="V19" s="23">
         <f>Q19/SUM(Q19,R19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W19" s="8" t="e">
+        <v>0.43636363636363634</v>
+      </c>
+      <c r="W19" s="8">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>#DIV/0!</v>
+        <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -6471,8 +6499,12 @@
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="8"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
+      <c r="Q20" s="9">
+        <v>46</v>
+      </c>
+      <c r="R20" s="10">
+        <v>57</v>
+      </c>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
@@ -6555,27 +6587,31 @@
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
         <v>0.46560846560846564</v>
       </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="23" t="e">
+      <c r="Q22" s="9">
+        <v>24</v>
+      </c>
+      <c r="R22" s="10">
+        <v>20</v>
+      </c>
+      <c r="S22" s="23">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="23" t="e">
+        <v>0.56329113924050633</v>
+      </c>
+      <c r="T22" s="23">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="23" t="e">
+        <v>0.43670886075949367</v>
+      </c>
+      <c r="U22" s="23">
         <f>Q22/SUM(Q22,Q23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="23" t="e">
+        <v>0.32876712328767121</v>
+      </c>
+      <c r="V22" s="23">
         <f>Q22/SUM(Q22,R22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W22" s="8" t="e">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="W22" s="8">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>#DIV/0!</v>
+        <v>0.41025641025641019</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -6601,8 +6637,12 @@
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="8"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
+      <c r="Q23" s="9">
+        <v>49</v>
+      </c>
+      <c r="R23" s="10">
+        <v>65</v>
+      </c>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
       <c r="U23" s="23"/>
@@ -6685,27 +6725,31 @@
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="23" t="e">
+      <c r="Q25" s="9">
+        <v>31</v>
+      </c>
+      <c r="R25" s="10">
+        <v>28</v>
+      </c>
+      <c r="S25" s="23">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="23" t="e">
+        <v>0.52531645569620256</v>
+      </c>
+      <c r="T25" s="23">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="23" t="e">
+        <v>0.47468354430379744</v>
+      </c>
+      <c r="U25" s="23">
         <f>Q25/SUM(Q25,Q26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="23" t="e">
+        <v>0.39743589743589741</v>
+      </c>
+      <c r="V25" s="23">
         <f>Q25/SUM(Q25,R25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="8" t="e">
+        <v>0.52542372881355937</v>
+      </c>
+      <c r="W25" s="8">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>#DIV/0!</v>
+        <v>0.45255474452554745</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -6731,8 +6775,12 @@
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="8"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="10"/>
+      <c r="Q26" s="9">
+        <v>47</v>
+      </c>
+      <c r="R26" s="10">
+        <v>52</v>
+      </c>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
@@ -6815,27 +6863,31 @@
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
         <v>0.40860215053763438</v>
       </c>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="23" t="e">
+      <c r="Q28" s="9">
+        <v>23</v>
+      </c>
+      <c r="R28" s="10">
+        <v>22</v>
+      </c>
+      <c r="S28" s="23">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="23" t="e">
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="T28" s="23">
         <f t="shared" ref="T28" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="23" t="e">
+        <v>0.46835443037974683</v>
+      </c>
+      <c r="U28" s="23">
         <f>Q28/SUM(Q28,Q29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="23" t="e">
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="V28" s="23">
         <f>Q28/SUM(Q28,R28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="8" t="e">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="W28" s="8">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>#DIV/0!</v>
+        <v>0.3833333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -6861,8 +6913,12 @@
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
       <c r="O29" s="8"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="10"/>
+      <c r="Q29" s="9">
+        <v>52</v>
+      </c>
+      <c r="R29" s="10">
+        <v>61</v>
+      </c>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
       <c r="U29" s="23"/>
@@ -6945,27 +7001,31 @@
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="23" t="e">
+      <c r="Q31" s="9">
+        <v>25</v>
+      </c>
+      <c r="R31" s="10">
+        <v>20</v>
+      </c>
+      <c r="S31" s="23">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="23" t="e">
+        <v>0.58227848101265822</v>
+      </c>
+      <c r="T31" s="23">
         <f t="shared" ref="T31" si="5">SUM(Q32,R31)/SUM(Q31:R32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="23" t="e">
+        <v>0.41772151898734178</v>
+      </c>
+      <c r="U31" s="23">
         <f>Q31/SUM(Q31,Q32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="23" t="e">
+        <v>0.352112676056338</v>
+      </c>
+      <c r="V31" s="23">
         <f>Q31/SUM(Q31,R31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="8" t="e">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="W31" s="8">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>#DIV/0!</v>
+        <v>0.43103448275862066</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -6991,8 +7051,12 @@
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
       <c r="O32" s="8"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="10"/>
+      <c r="Q32" s="9">
+        <v>46</v>
+      </c>
+      <c r="R32" s="10">
+        <v>67</v>
+      </c>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
       <c r="U32" s="23"/>
@@ -7075,27 +7139,31 @@
         <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="23" t="e">
+      <c r="Q34" s="9">
+        <v>24</v>
+      </c>
+      <c r="R34" s="10">
+        <v>25</v>
+      </c>
+      <c r="S34" s="23">
         <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="23" t="e">
+        <v>0.56329113924050633</v>
+      </c>
+      <c r="T34" s="23">
         <f t="shared" ref="T34" si="8">SUM(Q35,R34)/SUM(Q34:R35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U34" s="23" t="e">
+        <v>0.43670886075949367</v>
+      </c>
+      <c r="U34" s="23">
         <f>Q34/SUM(Q34,Q35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V34" s="23" t="e">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="V34" s="23">
         <f>Q34/SUM(Q34,R34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" s="8" t="e">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="W34" s="8">
         <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
-        <v>#DIV/0!</v>
+        <v>0.4102564102564103</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -7121,8 +7189,12 @@
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
       <c r="O35" s="8"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="10"/>
+      <c r="Q35" s="9">
+        <v>44</v>
+      </c>
+      <c r="R35" s="10">
+        <v>65</v>
+      </c>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
@@ -7190,27 +7262,31 @@
         <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
         <v>0.47872340425531923</v>
       </c>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="23" t="e">
+      <c r="Q37" s="9">
+        <v>27</v>
+      </c>
+      <c r="R37" s="10">
+        <v>21</v>
+      </c>
+      <c r="S37" s="23">
         <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="23" t="e">
+        <v>0.51898734177215189</v>
+      </c>
+      <c r="T37" s="23">
         <f t="shared" ref="T37" si="11">SUM(Q38,R37)/SUM(Q37:R38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U37" s="23" t="e">
+        <v>0.48101265822784811</v>
+      </c>
+      <c r="U37" s="23">
         <f>Q37/SUM(Q37,Q38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V37" s="23" t="e">
+        <v>0.32926829268292684</v>
+      </c>
+      <c r="V37" s="23">
         <f>Q37/SUM(Q37,R37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" s="8" t="e">
+        <v>0.5625</v>
+      </c>
+      <c r="W37" s="8">
         <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
-        <v>#DIV/0!</v>
+        <v>0.41538461538461535</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -7236,8 +7312,12 @@
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
       <c r="O38" s="8"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="10"/>
+      <c r="Q38" s="9">
+        <v>55</v>
+      </c>
+      <c r="R38" s="10">
+        <v>55</v>
+      </c>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
       <c r="U38" s="23"/>
@@ -7300,25 +7380,25 @@
       </c>
       <c r="Q40" s="26"/>
       <c r="R40" s="27"/>
-      <c r="S40" s="11" t="e">
+      <c r="S40" s="11">
         <f>SUM(S10:S37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T40" s="11" t="e">
+        <v>0.53037576626064797</v>
+      </c>
+      <c r="T40" s="11">
         <f>SUM(T10:T37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U40" s="11" t="e">
+        <v>0.46962423373935192</v>
+      </c>
+      <c r="U40" s="11">
         <f>SUM(U10:U37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V40" s="11" t="e">
+        <v>0.33058149741644061</v>
+      </c>
+      <c r="V40" s="11">
         <f>SUM(V10:V37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W40" s="12" t="e">
+        <v>0.50213407640095697</v>
+      </c>
+      <c r="W40" s="12">
         <f>SUM(W10:W37)/10</f>
-        <v>#DIV/0!</v>
+        <v>0.39721841738837016</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -7412,27 +7492,31 @@
       <c r="W46" s="8"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="23" t="e">
+      <c r="A47" s="9">
+        <v>47</v>
+      </c>
+      <c r="B47" s="10">
+        <v>6</v>
+      </c>
+      <c r="C47" s="23">
         <f>SUM(A47+B48)/SUM(A47:B48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D47" s="23" t="e">
+        <v>0.4088050314465409</v>
+      </c>
+      <c r="D47" s="23">
         <f>SUM(A48,B47)/SUM(A47:B48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="23" t="e">
+        <v>0.5911949685534591</v>
+      </c>
+      <c r="E47" s="23">
         <f>A47/SUM(A47,A48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="23" t="e">
+        <v>0.34814814814814815</v>
+      </c>
+      <c r="F47" s="23">
         <f>A47/SUM(A47,B47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="8" t="e">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="G47" s="8">
         <f xml:space="preserve"> (2*E47*F47)/(F47+E47)</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="10"/>
@@ -7480,8 +7564,12 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="9">
+        <v>88</v>
+      </c>
+      <c r="B48" s="10">
+        <v>18</v>
+      </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -7526,27 +7614,31 @@
       <c r="W49" s="8"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="23" t="e">
+      <c r="A50" s="9">
+        <v>45</v>
+      </c>
+      <c r="B50" s="10">
+        <v>5</v>
+      </c>
+      <c r="C50" s="23">
         <f>SUM(A50+B51)/SUM(A50:B51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="23" t="e">
+        <v>0.36477987421383645</v>
+      </c>
+      <c r="D50" s="23">
         <f>SUM(A51,B50)/SUM(A50:B51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="23" t="e">
+        <v>0.63522012578616349</v>
+      </c>
+      <c r="E50" s="23">
         <f>A50/SUM(A50,A51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="23" t="e">
+        <v>0.31914893617021278</v>
+      </c>
+      <c r="F50" s="23">
         <f>A50/SUM(A50,B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="8" t="e">
+        <v>0.9</v>
+      </c>
+      <c r="G50" s="8">
         <f xml:space="preserve"> (2*E50*F50)/(F50+E50)</f>
-        <v>#DIV/0!</v>
+        <v>0.47120418848167545</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="10"/>
@@ -7594,8 +7686,12 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="9">
+        <v>96</v>
+      </c>
+      <c r="B51" s="10">
+        <v>13</v>
+      </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -7640,27 +7736,31 @@
       <c r="W52" s="8"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="23" t="e">
+      <c r="A53" s="9">
+        <v>41</v>
+      </c>
+      <c r="B53" s="10">
+        <v>4</v>
+      </c>
+      <c r="C53" s="23">
         <f>SUM(A53+B54)/SUM(A53:B54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="23" t="e">
+        <v>0.37341772151898733</v>
+      </c>
+      <c r="D53" s="23">
         <f>SUM(A54,B53)/SUM(A53:B54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="23" t="e">
+        <v>0.62658227848101267</v>
+      </c>
+      <c r="E53" s="23">
         <f>A53/SUM(A53,A54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="23" t="e">
+        <v>0.3014705882352941</v>
+      </c>
+      <c r="F53" s="23">
         <f>A53/SUM(A53,B53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="8" t="e">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G53" s="8">
         <f xml:space="preserve"> (2*E53*F53)/(F53+E53)</f>
-        <v>#DIV/0!</v>
+        <v>0.45303867403314912</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="10"/>
@@ -7708,8 +7808,12 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="9">
+        <v>95</v>
+      </c>
+      <c r="B54" s="10">
+        <v>18</v>
+      </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -7754,27 +7858,31 @@
       <c r="W55" s="8"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="23" t="e">
+      <c r="A56" s="9">
+        <v>48</v>
+      </c>
+      <c r="B56" s="10">
+        <v>7</v>
+      </c>
+      <c r="C56" s="23">
         <f>SUM(A56+B57)/SUM(A56:B57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D56" s="23" t="e">
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="D56" s="23">
         <f>SUM(A57,B56)/SUM(A56:B57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E56" s="23" t="e">
+        <v>0.59493670886075944</v>
+      </c>
+      <c r="E56" s="23">
         <f>A56/SUM(A56,A57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="23" t="e">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="F56" s="23">
         <f>A56/SUM(A56,B56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" s="8" t="e">
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="G56" s="8">
         <f xml:space="preserve"> (2*E56*F56)/(F56+E56)</f>
-        <v>#DIV/0!</v>
+        <v>0.50526315789473686</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="10"/>
@@ -7822,8 +7930,12 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="9">
+        <v>87</v>
+      </c>
+      <c r="B57" s="10">
+        <v>16</v>
+      </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -7868,27 +7980,31 @@
       <c r="W58" s="8"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="23" t="e">
+      <c r="A59" s="9">
+        <v>42</v>
+      </c>
+      <c r="B59" s="10">
+        <v>2</v>
+      </c>
+      <c r="C59" s="23">
         <f>SUM(A59+B60)/SUM(A59:B60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="23" t="e">
+        <v>0.35443037974683544</v>
+      </c>
+      <c r="D59" s="23">
         <f>SUM(A60,B59)/SUM(A59:B60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E59" s="23" t="e">
+        <v>0.64556962025316456</v>
+      </c>
+      <c r="E59" s="23">
         <f>A59/SUM(A59,A60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="23" t="e">
+        <v>0.29577464788732394</v>
+      </c>
+      <c r="F59" s="23">
         <f>A59/SUM(A59,B59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G59" s="8" t="e">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="G59" s="8">
         <f xml:space="preserve"> (2*E59*F59)/(F59+E59)</f>
-        <v>#DIV/0!</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="10"/>
@@ -7936,8 +8052,12 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="9">
+        <v>100</v>
+      </c>
+      <c r="B60" s="10">
+        <v>14</v>
+      </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
@@ -7982,27 +8102,31 @@
       <c r="W61" s="8"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="23" t="e">
+      <c r="A62" s="9">
+        <v>48</v>
+      </c>
+      <c r="B62" s="10">
+        <v>11</v>
+      </c>
+      <c r="C62" s="23">
         <f>SUM(A62+B63)/SUM(A62:B63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D62" s="23" t="e">
+        <v>0.379746835443038</v>
+      </c>
+      <c r="D62" s="23">
         <f>SUM(A63,B62)/SUM(A62:B63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E62" s="23" t="e">
+        <v>0.620253164556962</v>
+      </c>
+      <c r="E62" s="23">
         <f>A62/SUM(A62,A63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="23" t="e">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="F62" s="23">
         <f>A62/SUM(A62,B62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G62" s="8" t="e">
+        <v>0.81355932203389836</v>
+      </c>
+      <c r="G62" s="8">
         <f xml:space="preserve"> (2*E62*F62)/(F62+E62)</f>
-        <v>#DIV/0!</v>
+        <v>0.49484536082474223</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="10"/>
@@ -8050,8 +8174,12 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="9">
+        <v>87</v>
+      </c>
+      <c r="B63" s="10">
+        <v>12</v>
+      </c>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -8096,27 +8224,31 @@
       <c r="W64" s="8"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="23" t="e">
+      <c r="A65" s="9">
+        <v>39</v>
+      </c>
+      <c r="B65" s="10">
+        <v>6</v>
+      </c>
+      <c r="C65" s="23">
         <f>SUM(A65+B66)/SUM(A65:B66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D65" s="23" t="e">
+        <v>0.29113924050632911</v>
+      </c>
+      <c r="D65" s="23">
         <f t="shared" ref="D65" si="12">SUM(A66,B65)/SUM(A65:B66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E65" s="23" t="e">
+        <v>0.70886075949367089</v>
+      </c>
+      <c r="E65" s="23">
         <f>A65/SUM(A65,A66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="23" t="e">
+        <v>0.26896551724137929</v>
+      </c>
+      <c r="F65" s="23">
         <f>A65/SUM(A65,B65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G65" s="8" t="e">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G65" s="8">
         <f xml:space="preserve"> (2*E65*F65)/(F65+E65)</f>
-        <v>#DIV/0!</v>
+        <v>0.41052631578947374</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="10"/>
@@ -8164,8 +8296,12 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
+      <c r="A66" s="9">
+        <v>106</v>
+      </c>
+      <c r="B66" s="10">
+        <v>7</v>
+      </c>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -8210,27 +8346,31 @@
       <c r="W67" s="8"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="23" t="e">
+      <c r="A68" s="9">
+        <v>40</v>
+      </c>
+      <c r="B68" s="10">
+        <v>5</v>
+      </c>
+      <c r="C68" s="23">
         <f>SUM(A68+B69)/SUM(A68:B69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D68" s="23" t="e">
+        <v>0.33544303797468356</v>
+      </c>
+      <c r="D68" s="23">
         <f t="shared" ref="D68" si="15">SUM(A69,B68)/SUM(A68:B69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E68" s="23" t="e">
+        <v>0.66455696202531644</v>
+      </c>
+      <c r="E68" s="23">
         <f>A68/SUM(A68,A69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="23" t="e">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F68" s="23">
         <f>A68/SUM(A68,B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G68" s="8" t="e">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G68" s="8">
         <f xml:space="preserve"> (2*E68*F68)/(F68+E68)</f>
-        <v>#DIV/0!</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="10"/>
@@ -8278,8 +8418,12 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
+      <c r="A69" s="9">
+        <v>100</v>
+      </c>
+      <c r="B69" s="10">
+        <v>13</v>
+      </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -8324,27 +8468,31 @@
       <c r="W70" s="8"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="23" t="e">
+      <c r="A71" s="9">
+        <v>42</v>
+      </c>
+      <c r="B71" s="10">
+        <v>7</v>
+      </c>
+      <c r="C71" s="23">
         <f>SUM(A71+B72)/SUM(A71:B72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D71" s="23" t="e">
+        <v>0.36075949367088606</v>
+      </c>
+      <c r="D71" s="23">
         <f t="shared" ref="D71" si="18">SUM(A72,B71)/SUM(A71:B72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E71" s="23" t="e">
+        <v>0.63924050632911389</v>
+      </c>
+      <c r="E71" s="23">
         <f>A71/SUM(A71,A72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="23" t="e">
+        <v>0.30882352941176472</v>
+      </c>
+      <c r="F71" s="23">
         <f>A71/SUM(A71,B71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G71" s="8" t="e">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G71" s="8">
         <f xml:space="preserve"> (2*E71*F71)/(F71+E71)</f>
-        <v>#DIV/0!</v>
+        <v>0.45405405405405413</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="10"/>
@@ -8392,8 +8540,12 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
+      <c r="A72" s="9">
+        <v>94</v>
+      </c>
+      <c r="B72" s="10">
+        <v>15</v>
+      </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -8423,27 +8575,31 @@
       <c r="W73" s="25"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="23" t="e">
+      <c r="A74" s="9">
+        <v>45</v>
+      </c>
+      <c r="B74" s="10">
+        <v>3</v>
+      </c>
+      <c r="C74" s="23">
         <f>SUM(A74+B75)/SUM(A74:B75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D74" s="23" t="e">
+        <v>0.36075949367088606</v>
+      </c>
+      <c r="D74" s="23">
         <f t="shared" ref="D74" si="21">SUM(A75,B74)/SUM(A74:B75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E74" s="23" t="e">
+        <v>0.63924050632911389</v>
+      </c>
+      <c r="E74" s="23">
         <f>A74/SUM(A74,A75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F74" s="23" t="e">
+        <v>0.31468531468531469</v>
+      </c>
+      <c r="F74" s="23">
         <f>A74/SUM(A74,B74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G74" s="8" t="e">
+        <v>0.9375</v>
+      </c>
+      <c r="G74" s="8">
         <f xml:space="preserve"> (2*E74*F74)/(F74+E74)</f>
-        <v>#DIV/0!</v>
+        <v>0.47120418848167539</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="10"/>
@@ -8491,8 +8647,12 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
+      <c r="A75" s="9">
+        <v>98</v>
+      </c>
+      <c r="B75" s="10">
+        <v>12</v>
+      </c>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
@@ -8525,25 +8685,25 @@
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="27"/>
-      <c r="C77" s="11" t="e">
+      <c r="C77" s="11">
         <f>SUM(C47:C74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D77" s="11" t="e">
+        <v>0.36343443993312635</v>
+      </c>
+      <c r="D77" s="11">
         <f>SUM(D47:D74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E77" s="11" t="e">
+        <v>0.63656556006687359</v>
+      </c>
+      <c r="E77" s="11">
         <f>SUM(E47:E74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F77" s="11" t="e">
+        <v>0.31538420786048343</v>
+      </c>
+      <c r="F77" s="11">
         <f>SUM(F47:F74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G77" s="12" t="e">
+        <v>0.88889340259463379</v>
+      </c>
+      <c r="G77" s="12">
         <f>SUM(G47:G74)/10</f>
-        <v>#DIV/0!</v>
+        <v>0.46441812752177458</v>
       </c>
       <c r="I77" s="26"/>
       <c r="J77" s="27"/>

--- a/testes/svm.xlsx
+++ b/testes/svm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D66BD-5576-455F-9B6F-771D5335EC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2915FA8-C47B-4A46-92D8-8128C35C93D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
   </bookViews>
@@ -5811,8 +5811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7633C9-1321-4BA4-B8FD-E320CD2D249F}">
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7518,49 +7518,57 @@
         <f xml:space="preserve"> (2*E47*F47)/(F47+E47)</f>
         <v>0.5</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="23" t="e">
+      <c r="I47" s="9">
+        <v>33</v>
+      </c>
+      <c r="J47" s="10">
+        <v>20</v>
+      </c>
+      <c r="K47" s="23">
         <f>SUM(I47+J48)/SUM(I47:J48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="23" t="e">
+        <v>0.44025157232704404</v>
+      </c>
+      <c r="L47" s="23">
         <f>SUM(I48,J47)/SUM(I47:J48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="23" t="e">
+        <v>0.55974842767295596</v>
+      </c>
+      <c r="M47" s="23">
         <f>I47/SUM(I47,I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="23" t="e">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="N47" s="23">
         <f>I47/SUM(I47,J47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O47" s="8" t="e">
+        <v>0.62264150943396224</v>
+      </c>
+      <c r="O47" s="8">
         <f xml:space="preserve"> (2*M47*N47)/(N47+M47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="23" t="e">
+        <v>0.4258064516129032</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>30</v>
+      </c>
+      <c r="R47" s="10">
+        <v>23</v>
+      </c>
+      <c r="S47" s="23">
         <f>SUM(Q47+R48)/SUM(Q47:R48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T47" s="23" t="e">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="T47" s="23">
         <f>SUM(Q48,R47)/SUM(Q47:R48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U47" s="23" t="e">
+        <v>0.58490566037735847</v>
+      </c>
+      <c r="U47" s="23">
         <f>Q47/SUM(Q47,Q48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V47" s="23" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="V47" s="23">
         <f>Q47/SUM(Q47,R47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W47" s="8" t="e">
+        <v>0.56603773584905659</v>
+      </c>
+      <c r="W47" s="8">
         <f xml:space="preserve"> (2*U47*V47)/(V47+U47)</f>
-        <v>#DIV/0!</v>
+        <v>0.39215686274509803</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -7575,15 +7583,23 @@
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
       <c r="G48" s="8"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
+      <c r="I48" s="9">
+        <v>69</v>
+      </c>
+      <c r="J48" s="10">
+        <v>37</v>
+      </c>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
       <c r="O48" s="8"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="10"/>
+      <c r="Q48" s="9">
+        <v>70</v>
+      </c>
+      <c r="R48" s="10">
+        <v>36</v>
+      </c>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
       <c r="U48" s="23"/>
@@ -7640,49 +7656,57 @@
         <f xml:space="preserve"> (2*E50*F50)/(F50+E50)</f>
         <v>0.47120418848167545</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="23" t="e">
+      <c r="I50" s="9">
+        <v>32</v>
+      </c>
+      <c r="J50" s="10">
+        <v>18</v>
+      </c>
+      <c r="K50" s="23">
         <f>SUM(I50+J51)/SUM(I50:J51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L50" s="23" t="e">
+        <v>0.46540880503144655</v>
+      </c>
+      <c r="L50" s="23">
         <f>SUM(I51,J50)/SUM(I50:J51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="23" t="e">
+        <v>0.53459119496855345</v>
+      </c>
+      <c r="M50" s="23">
         <f>I50/SUM(I50,I51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N50" s="23" t="e">
+        <v>0.32323232323232326</v>
+      </c>
+      <c r="N50" s="23">
         <f>I50/SUM(I50,J50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="8" t="e">
+        <v>0.64</v>
+      </c>
+      <c r="O50" s="8">
         <f xml:space="preserve"> (2*M50*N50)/(N50+M50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="23" t="e">
+        <v>0.42953020134228193</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>29</v>
+      </c>
+      <c r="R50" s="10">
+        <v>21</v>
+      </c>
+      <c r="S50" s="23">
         <f>SUM(Q50+R51)/SUM(Q50:R51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T50" s="23" t="e">
+        <v>0.47169811320754718</v>
+      </c>
+      <c r="T50" s="23">
         <f>SUM(Q51,R50)/SUM(Q50:R51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U50" s="23" t="e">
+        <v>0.52830188679245282</v>
+      </c>
+      <c r="U50" s="23">
         <f>Q50/SUM(Q50,Q51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V50" s="23" t="e">
+        <v>0.31521739130434784</v>
+      </c>
+      <c r="V50" s="23">
         <f>Q50/SUM(Q50,R50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W50" s="8" t="e">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="W50" s="8">
         <f xml:space="preserve"> (2*U50*V50)/(V50+U50)</f>
-        <v>#DIV/0!</v>
+        <v>0.40845070422535212</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -7697,15 +7721,23 @@
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="8"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="10"/>
+      <c r="I51" s="9">
+        <v>67</v>
+      </c>
+      <c r="J51" s="10">
+        <v>42</v>
+      </c>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
       <c r="O51" s="8"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="10"/>
+      <c r="Q51" s="9">
+        <v>63</v>
+      </c>
+      <c r="R51" s="10">
+        <v>46</v>
+      </c>
       <c r="S51" s="23"/>
       <c r="T51" s="23"/>
       <c r="U51" s="23"/>
@@ -7762,49 +7794,57 @@
         <f xml:space="preserve"> (2*E53*F53)/(F53+E53)</f>
         <v>0.45303867403314912</v>
       </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="23" t="e">
+      <c r="I53" s="9">
+        <v>37</v>
+      </c>
+      <c r="J53" s="10">
+        <v>18</v>
+      </c>
+      <c r="K53" s="23">
         <f>SUM(I53+J54)/SUM(I53:J54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="23" t="e">
+        <v>0.44047619047619047</v>
+      </c>
+      <c r="L53" s="23">
         <f>SUM(I54,J53)/SUM(I53:J54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="23" t="e">
+        <v>0.55952380952380953</v>
+      </c>
+      <c r="M53" s="23">
         <f>I53/SUM(I53,I54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N53" s="23" t="e">
+        <v>0.32743362831858408</v>
+      </c>
+      <c r="N53" s="23">
         <f>I53/SUM(I53,J53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="8" t="e">
+        <v>0.67272727272727273</v>
+      </c>
+      <c r="O53" s="8">
         <f xml:space="preserve"> (2*M53*N53)/(N53+M53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="23" t="e">
+        <v>0.44047619047619047</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>23</v>
+      </c>
+      <c r="R53" s="10">
+        <v>22</v>
+      </c>
+      <c r="S53" s="23">
         <f>SUM(Q53+R54)/SUM(Q53:R54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T53" s="23" t="e">
+        <v>0.41139240506329117</v>
+      </c>
+      <c r="T53" s="23">
         <f>SUM(Q54,R53)/SUM(Q53:R54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U53" s="23" t="e">
+        <v>0.58860759493670889</v>
+      </c>
+      <c r="U53" s="23">
         <f>Q53/SUM(Q53,Q54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V53" s="23" t="e">
+        <v>0.24468085106382978</v>
+      </c>
+      <c r="V53" s="23">
         <f>Q53/SUM(Q53,R53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W53" s="8" t="e">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="W53" s="8">
         <f xml:space="preserve"> (2*U53*V53)/(V53+U53)</f>
-        <v>#DIV/0!</v>
+        <v>0.33093525179856115</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -7819,15 +7859,23 @@
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
       <c r="G54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="10"/>
+      <c r="I54" s="9">
+        <v>76</v>
+      </c>
+      <c r="J54" s="10">
+        <v>37</v>
+      </c>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
       <c r="O54" s="8"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="10"/>
+      <c r="Q54" s="9">
+        <v>71</v>
+      </c>
+      <c r="R54" s="10">
+        <v>42</v>
+      </c>
       <c r="S54" s="23"/>
       <c r="T54" s="23"/>
       <c r="U54" s="23"/>
@@ -7884,49 +7932,57 @@
         <f xml:space="preserve"> (2*E56*F56)/(F56+E56)</f>
         <v>0.50526315789473686</v>
       </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="23" t="e">
+      <c r="I56" s="9">
+        <v>27</v>
+      </c>
+      <c r="J56" s="10">
+        <v>28</v>
+      </c>
+      <c r="K56" s="23">
         <f>SUM(I56+J57)/SUM(I56:J57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L56" s="23" t="e">
+        <v>0.37341772151898733</v>
+      </c>
+      <c r="L56" s="23">
         <f>SUM(I57,J56)/SUM(I56:J57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="23" t="e">
+        <v>0.62658227848101267</v>
+      </c>
+      <c r="M56" s="23">
         <f>I56/SUM(I56,I57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N56" s="23" t="e">
+        <v>0.27551020408163263</v>
+      </c>
+      <c r="N56" s="23">
         <f>I56/SUM(I56,J56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O56" s="8" t="e">
+        <v>0.49090909090909091</v>
+      </c>
+      <c r="O56" s="8">
         <f xml:space="preserve"> (2*M56*N56)/(N56+M56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="23" t="e">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>31</v>
+      </c>
+      <c r="R56" s="10">
+        <v>24</v>
+      </c>
+      <c r="S56" s="23">
         <f>SUM(Q56+R57)/SUM(Q56:R57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T56" s="23" t="e">
+        <v>0.39873417721518989</v>
+      </c>
+      <c r="T56" s="23">
         <f>SUM(Q57,R56)/SUM(Q56:R57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U56" s="23" t="e">
+        <v>0.60126582278481011</v>
+      </c>
+      <c r="U56" s="23">
         <f>Q56/SUM(Q56,Q57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V56" s="23" t="e">
+        <v>0.30392156862745096</v>
+      </c>
+      <c r="V56" s="23">
         <f>Q56/SUM(Q56,R56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W56" s="8" t="e">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="W56" s="8">
         <f xml:space="preserve"> (2*U56*V56)/(V56+U56)</f>
-        <v>#DIV/0!</v>
+        <v>0.39490445859872608</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -7941,15 +7997,23 @@
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
       <c r="G57" s="8"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="10"/>
+      <c r="I57" s="9">
+        <v>71</v>
+      </c>
+      <c r="J57" s="10">
+        <v>32</v>
+      </c>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
       <c r="O57" s="8"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="10"/>
+      <c r="Q57" s="9">
+        <v>71</v>
+      </c>
+      <c r="R57" s="10">
+        <v>32</v>
+      </c>
       <c r="S57" s="23"/>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
@@ -8006,49 +8070,57 @@
         <f xml:space="preserve"> (2*E59*F59)/(F59+E59)</f>
         <v>0.45161290322580644</v>
       </c>
-      <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="23" t="e">
+      <c r="I59" s="9">
+        <v>25</v>
+      </c>
+      <c r="J59" s="10">
+        <v>19</v>
+      </c>
+      <c r="K59" s="23">
         <f>SUM(I59+J60)/SUM(I59:J60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L59" s="23" t="e">
+        <v>0.44936708860759494</v>
+      </c>
+      <c r="L59" s="23">
         <f>SUM(I60,J59)/SUM(I59:J60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M59" s="23" t="e">
+        <v>0.55063291139240511</v>
+      </c>
+      <c r="M59" s="23">
         <f>I59/SUM(I59,I60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N59" s="23" t="e">
+        <v>0.26881720430107525</v>
+      </c>
+      <c r="N59" s="23">
         <f>I59/SUM(I59,J59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="8" t="e">
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="O59" s="8">
         <f xml:space="preserve"> (2*M59*N59)/(N59+M59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="23" t="e">
+        <v>0.36496350364963503</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>20</v>
+      </c>
+      <c r="R59" s="10">
+        <v>24</v>
+      </c>
+      <c r="S59" s="23">
         <f>SUM(Q59+R60)/SUM(Q59:R60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T59" s="23" t="e">
+        <v>0.48101265822784811</v>
+      </c>
+      <c r="T59" s="23">
         <f>SUM(Q60,R59)/SUM(Q59:R60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U59" s="23" t="e">
+        <v>0.51898734177215189</v>
+      </c>
+      <c r="U59" s="23">
         <f>Q59/SUM(Q59,Q60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V59" s="23" t="e">
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="V59" s="23">
         <f>Q59/SUM(Q59,R59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W59" s="8" t="e">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="W59" s="8">
         <f xml:space="preserve"> (2*U59*V59)/(V59+U59)</f>
-        <v>#DIV/0!</v>
+        <v>0.32786885245901631</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -8063,15 +8135,23 @@
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
       <c r="G60" s="8"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
+      <c r="I60" s="9">
+        <v>68</v>
+      </c>
+      <c r="J60" s="10">
+        <v>46</v>
+      </c>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
       <c r="O60" s="8"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="10"/>
+      <c r="Q60" s="9">
+        <v>58</v>
+      </c>
+      <c r="R60" s="10">
+        <v>56</v>
+      </c>
       <c r="S60" s="23"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
@@ -8128,49 +8208,57 @@
         <f xml:space="preserve"> (2*E62*F62)/(F62+E62)</f>
         <v>0.49484536082474223</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="23" t="e">
+      <c r="I62" s="9">
+        <v>29</v>
+      </c>
+      <c r="J62" s="10">
+        <v>30</v>
+      </c>
+      <c r="K62" s="23">
         <f>SUM(I62+J63)/SUM(I62:J63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L62" s="23" t="e">
+        <v>0.45569620253164556</v>
+      </c>
+      <c r="L62" s="23">
         <f>SUM(I63,J62)/SUM(I62:J63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="23" t="e">
+        <v>0.54430379746835444</v>
+      </c>
+      <c r="M62" s="23">
         <f>I62/SUM(I62,I63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N62" s="23" t="e">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="N62" s="23">
         <f>I62/SUM(I62,J62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O62" s="8" t="e">
+        <v>0.49152542372881358</v>
+      </c>
+      <c r="O62" s="8">
         <f xml:space="preserve"> (2*M62*N62)/(N62+M62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="23" t="e">
+        <v>0.40277777777777785</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>26</v>
+      </c>
+      <c r="R62" s="10">
+        <v>33</v>
+      </c>
+      <c r="S62" s="23">
         <f>SUM(Q62+R63)/SUM(Q62:R63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T62" s="23" t="e">
+        <v>0.45569620253164556</v>
+      </c>
+      <c r="T62" s="23">
         <f>SUM(Q63,R62)/SUM(Q62:R63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U62" s="23" t="e">
+        <v>0.54430379746835444</v>
+      </c>
+      <c r="U62" s="23">
         <f>Q62/SUM(Q62,Q63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V62" s="23" t="e">
+        <v>0.32911392405063289</v>
+      </c>
+      <c r="V62" s="23">
         <f>Q62/SUM(Q62,R62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W62" s="8" t="e">
+        <v>0.44067796610169491</v>
+      </c>
+      <c r="W62" s="8">
         <f xml:space="preserve"> (2*U62*V62)/(V62+U62)</f>
-        <v>#DIV/0!</v>
+        <v>0.37681159420289856</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -8185,15 +8273,23 @@
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="8"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="10"/>
+      <c r="I63" s="9">
+        <v>56</v>
+      </c>
+      <c r="J63" s="10">
+        <v>43</v>
+      </c>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
       <c r="N63" s="23"/>
       <c r="O63" s="8"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="10"/>
+      <c r="Q63" s="9">
+        <v>53</v>
+      </c>
+      <c r="R63" s="10">
+        <v>46</v>
+      </c>
       <c r="S63" s="23"/>
       <c r="T63" s="23"/>
       <c r="U63" s="23"/>
@@ -8250,49 +8346,57 @@
         <f xml:space="preserve"> (2*E65*F65)/(F65+E65)</f>
         <v>0.41052631578947374</v>
       </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="23" t="e">
+      <c r="I65" s="9">
+        <v>27</v>
+      </c>
+      <c r="J65" s="10">
+        <v>18</v>
+      </c>
+      <c r="K65" s="23">
         <f>SUM(I65+J66)/SUM(I65:J66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L65" s="23" t="e">
+        <v>0.46202531645569622</v>
+      </c>
+      <c r="L65" s="23">
         <f t="shared" ref="L65" si="13">SUM(I66,J65)/SUM(I65:J66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M65" s="23" t="e">
+        <v>0.53797468354430378</v>
+      </c>
+      <c r="M65" s="23">
         <f>I65/SUM(I65,I66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N65" s="23" t="e">
+        <v>0.28723404255319152</v>
+      </c>
+      <c r="N65" s="23">
         <f>I65/SUM(I65,J65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O65" s="8" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="O65" s="8">
         <f xml:space="preserve"> (2*M65*N65)/(N65+M65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="23" t="e">
+        <v>0.3884892086330935</v>
+      </c>
+      <c r="Q65" s="9">
+        <v>27</v>
+      </c>
+      <c r="R65" s="10">
+        <v>18</v>
+      </c>
+      <c r="S65" s="23">
         <f>SUM(Q65+R66)/SUM(Q65:R66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T65" s="23" t="e">
+        <v>0.50632911392405067</v>
+      </c>
+      <c r="T65" s="23">
         <f t="shared" ref="T65" si="14">SUM(Q66,R65)/SUM(Q65:R66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U65" s="23" t="e">
+        <v>0.49367088607594939</v>
+      </c>
+      <c r="U65" s="23">
         <f>Q65/SUM(Q65,Q66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V65" s="23" t="e">
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="V65" s="23">
         <f>Q65/SUM(Q65,R65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W65" s="8" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="W65" s="8">
         <f xml:space="preserve"> (2*U65*V65)/(V65+U65)</f>
-        <v>#DIV/0!</v>
+        <v>0.40909090909090912</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -8307,15 +8411,23 @@
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="8"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="10"/>
+      <c r="I66" s="9">
+        <v>67</v>
+      </c>
+      <c r="J66" s="10">
+        <v>46</v>
+      </c>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
       <c r="O66" s="8"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="10"/>
+      <c r="Q66" s="9">
+        <v>60</v>
+      </c>
+      <c r="R66" s="10">
+        <v>53</v>
+      </c>
       <c r="S66" s="23"/>
       <c r="T66" s="23"/>
       <c r="U66" s="23"/>
@@ -8372,49 +8484,57 @@
         <f xml:space="preserve"> (2*E68*F68)/(F68+E68)</f>
         <v>0.43243243243243246</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="23" t="e">
+      <c r="I68" s="9">
+        <v>28</v>
+      </c>
+      <c r="J68" s="10">
+        <v>17</v>
+      </c>
+      <c r="K68" s="23">
         <f>SUM(I68+J69)/SUM(I68:J69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" s="23" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="L68" s="23">
         <f t="shared" ref="L68" si="16">SUM(I69,J68)/SUM(I68:J69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M68" s="23" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="M68" s="23">
         <f>I68/SUM(I68,I69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N68" s="23" t="e">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="N68" s="23">
         <f>I68/SUM(I68,J68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O68" s="8" t="e">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="O68" s="8">
         <f xml:space="preserve"> (2*M68*N68)/(N68+M68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="23" t="e">
+        <v>0.4148148148148148</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>26</v>
+      </c>
+      <c r="R68" s="10">
+        <v>19</v>
+      </c>
+      <c r="S68" s="23">
         <f>SUM(Q68+R69)/SUM(Q68:R69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T68" s="23" t="e">
+        <v>0.48734177215189872</v>
+      </c>
+      <c r="T68" s="23">
         <f t="shared" ref="T68" si="17">SUM(Q69,R68)/SUM(Q68:R69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U68" s="23" t="e">
+        <v>0.51265822784810122</v>
+      </c>
+      <c r="U68" s="23">
         <f>Q68/SUM(Q68,Q69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V68" s="23" t="e">
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="V68" s="23">
         <f>Q68/SUM(Q68,R68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W68" s="8" t="e">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="W68" s="8">
         <f xml:space="preserve"> (2*U68*V68)/(V68+U68)</f>
-        <v>#DIV/0!</v>
+        <v>0.39097744360902259</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -8429,15 +8549,23 @@
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="8"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="10"/>
+      <c r="I69" s="9">
+        <v>62</v>
+      </c>
+      <c r="J69" s="10">
+        <v>51</v>
+      </c>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
       <c r="O69" s="8"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="10"/>
+      <c r="Q69" s="9">
+        <v>62</v>
+      </c>
+      <c r="R69" s="10">
+        <v>51</v>
+      </c>
       <c r="S69" s="23"/>
       <c r="T69" s="23"/>
       <c r="U69" s="23"/>
@@ -8494,49 +8622,57 @@
         <f xml:space="preserve"> (2*E71*F71)/(F71+E71)</f>
         <v>0.45405405405405413</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="23" t="e">
+      <c r="I71" s="9">
+        <v>31</v>
+      </c>
+      <c r="J71" s="10">
+        <v>18</v>
+      </c>
+      <c r="K71" s="23">
         <f>SUM(I71+J72)/SUM(I71:J72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L71" s="23" t="e">
+        <v>0.42405063291139239</v>
+      </c>
+      <c r="L71" s="23">
         <f t="shared" ref="L71" si="19">SUM(I72,J71)/SUM(I71:J72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M71" s="23" t="e">
+        <v>0.57594936708860756</v>
+      </c>
+      <c r="M71" s="23">
         <f>I71/SUM(I71,I72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N71" s="23" t="e">
+        <v>0.29807692307692307</v>
+      </c>
+      <c r="N71" s="23">
         <f>I71/SUM(I71,J71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O71" s="8" t="e">
+        <v>0.63265306122448983</v>
+      </c>
+      <c r="O71" s="8">
         <f xml:space="preserve"> (2*M71*N71)/(N71+M71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="23" t="e">
+        <v>0.40522875816993459</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>22</v>
+      </c>
+      <c r="R71" s="10">
+        <v>27</v>
+      </c>
+      <c r="S71" s="23">
         <f>SUM(Q71+R72)/SUM(Q71:R72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T71" s="23" t="e">
+        <v>0.43670886075949367</v>
+      </c>
+      <c r="T71" s="23">
         <f t="shared" ref="T71" si="20">SUM(Q72,R71)/SUM(Q71:R72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U71" s="23" t="e">
+        <v>0.56329113924050633</v>
+      </c>
+      <c r="U71" s="23">
         <f>Q71/SUM(Q71,Q72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V71" s="23" t="e">
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="V71" s="23">
         <f>Q71/SUM(Q71,R71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W71" s="8" t="e">
+        <v>0.44897959183673469</v>
+      </c>
+      <c r="W71" s="8">
         <f xml:space="preserve"> (2*U71*V71)/(V71+U71)</f>
-        <v>#DIV/0!</v>
+        <v>0.33082706766917291</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -8551,15 +8687,23 @@
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
       <c r="G72" s="8"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="10"/>
+      <c r="I72" s="9">
+        <v>73</v>
+      </c>
+      <c r="J72" s="10">
+        <v>36</v>
+      </c>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
       <c r="O72" s="8"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="10"/>
+      <c r="Q72" s="9">
+        <v>62</v>
+      </c>
+      <c r="R72" s="10">
+        <v>47</v>
+      </c>
       <c r="S72" s="23"/>
       <c r="T72" s="23"/>
       <c r="U72" s="23"/>
@@ -8601,49 +8745,57 @@
         <f xml:space="preserve"> (2*E74*F74)/(F74+E74)</f>
         <v>0.47120418848167539</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="23" t="e">
+      <c r="I74" s="9">
+        <v>30</v>
+      </c>
+      <c r="J74" s="10">
+        <v>18</v>
+      </c>
+      <c r="K74" s="23">
         <f>SUM(I74+J75)/SUM(I74:J75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L74" s="23" t="e">
+        <v>0.41139240506329117</v>
+      </c>
+      <c r="L74" s="23">
         <f t="shared" ref="L74" si="22">SUM(I75,J74)/SUM(I74:J75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M74" s="23" t="e">
+        <v>0.58860759493670889</v>
+      </c>
+      <c r="M74" s="23">
         <f>I74/SUM(I74,I75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N74" s="23" t="e">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N74" s="23">
         <f>I74/SUM(I74,J74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O74" s="8" t="e">
+        <v>0.625</v>
+      </c>
+      <c r="O74" s="8">
         <f xml:space="preserve"> (2*M74*N74)/(N74+M74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="23" t="e">
+        <v>0.39215686274509798</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>28</v>
+      </c>
+      <c r="R74" s="10">
+        <v>20</v>
+      </c>
+      <c r="S74" s="23">
         <f>SUM(Q74+R75)/SUM(Q74:R75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T74" s="23" t="e">
+        <v>0.43037974683544306</v>
+      </c>
+      <c r="T74" s="23">
         <f t="shared" ref="T74" si="23">SUM(Q75,R74)/SUM(Q74:R75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U74" s="23" t="e">
+        <v>0.569620253164557</v>
+      </c>
+      <c r="U74" s="23">
         <f>Q74/SUM(Q74,Q75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V74" s="23" t="e">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V74" s="23">
         <f>Q74/SUM(Q74,R74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W74" s="8" t="e">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="W74" s="8">
         <f xml:space="preserve"> (2*U74*V74)/(V74+U74)</f>
-        <v>#DIV/0!</v>
+        <v>0.38356164383561642</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -8658,15 +8810,23 @@
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
       <c r="G75" s="8"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="10"/>
+      <c r="I75" s="9">
+        <v>75</v>
+      </c>
+      <c r="J75" s="10">
+        <v>35</v>
+      </c>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
       <c r="O75" s="8"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="10"/>
+      <c r="Q75" s="9">
+        <v>70</v>
+      </c>
+      <c r="R75" s="10">
+        <v>40</v>
+      </c>
       <c r="S75" s="23"/>
       <c r="T75" s="23"/>
       <c r="U75" s="23"/>
@@ -8707,47 +8867,47 @@
       </c>
       <c r="I77" s="26"/>
       <c r="J77" s="27"/>
-      <c r="K77" s="11" t="e">
+      <c r="K77" s="11">
         <f>SUM(K47:K74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L77" s="11" t="e">
+        <v>0.44220859349232883</v>
+      </c>
+      <c r="L77" s="11">
         <f>SUM(L47:L74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M77" s="11" t="e">
+        <v>0.55779140650767123</v>
+      </c>
+      <c r="M77" s="11">
         <f>SUM(M47:M74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N77" s="11" t="e">
+        <v>0.30418356047420675</v>
+      </c>
+      <c r="N77" s="11">
         <f>SUM(N47:N74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O77" s="12" t="e">
+        <v>0.59658603984276692</v>
+      </c>
+      <c r="O77" s="12">
         <f>SUM(O47:O74)/10</f>
-        <v>#DIV/0!</v>
+        <v>0.40171849456923175</v>
       </c>
       <c r="Q77" s="26"/>
       <c r="R77" s="27"/>
-      <c r="S77" s="11" t="e">
+      <c r="S77" s="11">
         <f>SUM(S47:S74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T77" s="11" t="e">
+        <v>0.44943873895390485</v>
+      </c>
+      <c r="T77" s="11">
         <f>SUM(T47:T74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U77" s="11" t="e">
+        <v>0.55056126104609515</v>
+      </c>
+      <c r="U77" s="11">
         <f>SUM(U47:U74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V77" s="11" t="e">
+        <v>0.29027624121163176</v>
+      </c>
+      <c r="V77" s="11">
         <f>SUM(V47:V74)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W77" s="12" t="e">
+        <v>0.53260993341915264</v>
+      </c>
+      <c r="W77" s="12">
         <f>SUM(W47:W74)/10</f>
-        <v>#DIV/0!</v>
+        <v>0.37455847882343729</v>
       </c>
     </row>
   </sheetData>

--- a/testes/svm.xlsx
+++ b/testes/svm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2915FA8-C47B-4A46-92D8-8128C35C93D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F941F8-B477-46FE-8CD5-F946ABEDE7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Parametros" sheetId="2" r:id="rId3"/>
     <sheet name="SURF" sheetId="5" r:id="rId4"/>
     <sheet name="COMBINED" sheetId="6" r:id="rId5"/>
-    <sheet name="SIFT" sheetId="4" r:id="rId6"/>
+    <sheet name="Gráfico" sheetId="7" r:id="rId6"/>
+    <sheet name="SIFT" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="53">
   <si>
     <t>HOG</t>
   </si>
@@ -174,6 +175,27 @@
   </si>
   <si>
     <t>COMB PCA 9</t>
+  </si>
+  <si>
+    <t>Acurácia</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>COMBINADO</t>
+  </si>
+  <si>
+    <t>matriz media</t>
   </si>
 </sst>
 </file>
@@ -315,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,6 +411,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,6 +426,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF993366"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -410,6 +441,1252 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho dos descritores com OC-SVM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.40452989411671042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59547010588328952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34274689732767144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99016829229293246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50823504259424457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6773-46FA-A567-B4874D4332C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9999"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31414298224663634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68585701775336361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31139297357752571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99199952919020706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47324609615951518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6773-46FA-A567-B4874D4332C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SURF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37171449480381891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62828550519618109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32291890238941701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9308999201632373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47840561433380752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6773-46FA-A567-B4874D4332C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31414298224663634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68585701775336361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31139297357752571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99199952919020706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47324609615951518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6773-46FA-A567-B4874D4332C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBINADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37040442639917204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62959557360082785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32262481995057202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92870430631672585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47814791997404216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6773-46FA-A567-B4874D4332C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213434959"/>
+        <c:axId val="214576671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213434959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214576671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214576671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213434959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE387E42-7863-4BC7-BBC6-4BC7314EB1DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,15 +1986,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A9FFC0-4EA9-4DAB-A402-2F4F77CE1FBA}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +2008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -745,7 +2022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
@@ -759,27 +2036,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="I7" s="32" t="s">
+      <c r="B7" s="32"/>
+      <c r="I7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="Q7" s="32" t="s">
+      <c r="J7" s="33"/>
+      <c r="Q7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="32"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -831,8 +2108,11 @@
       <c r="W8" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z8" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -854,8 +2134,14 @@
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>49</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>52</v>
       </c>
@@ -934,8 +2220,14 @@
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
         <v>0.56521739130434767</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>94</v>
+      </c>
+      <c r="AA10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>90</v>
       </c>
@@ -970,7 +2262,7 @@
       <c r="V11" s="21"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -992,8 +2284,12 @@
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
       <c r="W12" s="8"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <f>SUM(Z9:AA10)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>50</v>
       </c>
@@ -1073,7 +2369,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>93</v>
       </c>
@@ -1108,7 +2404,7 @@
       <c r="V14" s="21"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1131,7 +2427,7 @@
       <c r="V15" s="21"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45</v>
       </c>
@@ -2288,7 +3584,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="C39" sqref="C39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,18 +3649,18 @@
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="I6" s="32" t="s">
+      <c r="B6" s="32"/>
+      <c r="I6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="Q6" s="32" t="s">
+      <c r="J6" s="33"/>
+      <c r="Q6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="32"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4162,8 +5458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A24BDA-81EC-45D6-82C4-BA7313F1BE61}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,18 +5513,18 @@
       <c r="D4" s="15"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="I7" s="32" t="s">
+      <c r="B7" s="32"/>
+      <c r="I7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="Q7" s="32" t="s">
+      <c r="J7" s="33"/>
+      <c r="Q7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="32"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -5811,8 +7107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7633C9-1321-4BA4-B8FD-E320CD2D249F}">
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5893,18 +7189,18 @@
       <c r="D4" s="15"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="I7" s="32" t="s">
+      <c r="B7" s="32"/>
+      <c r="I7" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="Q7" s="32" t="s">
+      <c r="J7" s="33"/>
+      <c r="Q7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="32"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -7402,18 +8698,18 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="I44" s="32" t="s">
+      <c r="B44" s="32"/>
+      <c r="I44" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="32"/>
-      <c r="Q44" s="32" t="s">
+      <c r="J44" s="33"/>
+      <c r="Q44" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="32"/>
+      <c r="R44" s="33"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -8924,11 +10220,521 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D900081-7699-48C5-839C-4F0B70944A15}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31">
+        <v>0.40452989411671042</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0.59547010588328952</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.34274689732767144</v>
+      </c>
+      <c r="E2" s="31">
+        <v>0.99016829229293246</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0.50823504259424457</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0.31414298224663634</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.68585701775336361</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.31139297357752571</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.99199952919020706</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.47324609615951518</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="31">
+        <v>0.37171449480381891</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.62828550519618109</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.32291890238941701</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0.9308999201632373</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0.47840561433380752</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="31">
+        <v>0.31414298224663634</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.68585701775336361</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.31139297357752571</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.99199952919020706</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.47324609615951518</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="31">
+        <v>0.37040442639917204</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0.62959557360082785</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.32262481995057202</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0.92870430631672585</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0.47814791997404216</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:L31"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFDA701-C8DD-445E-8E39-BA8E0FB5E18A}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8976,18 +10782,18 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="I6" s="32" t="s">
+      <c r="B6" s="32"/>
+      <c r="I6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="Q6" s="32" t="s">
+      <c r="J6" s="33"/>
+      <c r="Q6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="32"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/testes/svm.xlsx
+++ b/testes/svm.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F941F8-B477-46FE-8CD5-F946ABEDE7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B6EB0-6772-4757-B844-82433DF051CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="1" r:id="rId1"/>
-    <sheet name="ORB" sheetId="3" r:id="rId2"/>
-    <sheet name="Parametros" sheetId="2" r:id="rId3"/>
-    <sheet name="SURF" sheetId="5" r:id="rId4"/>
-    <sheet name="COMBINED" sheetId="6" r:id="rId5"/>
-    <sheet name="Gráfico" sheetId="7" r:id="rId6"/>
-    <sheet name="SIFT" sheetId="4" r:id="rId7"/>
+    <sheet name="Grafico PCA" sheetId="8" r:id="rId2"/>
+    <sheet name="ORB" sheetId="3" r:id="rId3"/>
+    <sheet name="Parametros" sheetId="2" r:id="rId4"/>
+    <sheet name="SURF" sheetId="5" r:id="rId5"/>
+    <sheet name="COMBINED" sheetId="6" r:id="rId6"/>
+    <sheet name="Gráfico dos melhores descritore" sheetId="7" r:id="rId7"/>
+    <sheet name="SIFT" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="54">
   <si>
     <t>HOG</t>
   </si>
@@ -197,6 +198,9 @@
   <si>
     <t>matriz media</t>
   </si>
+  <si>
+    <t>Sem PCA</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,6 +418,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,6 +451,1987 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho dos descritores sem PCA com OC-SVM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.40452989411671042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59547010588328952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34274689732767144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99016829229293246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50823504259424457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEE3-46F4-B36B-70E4DA029175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9999"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31414298224663634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68585701775336361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31139297357752571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99199952919020706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47324609615951518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEE3-46F4-B36B-70E4DA029175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SURF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.59733699546214458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40266300453785525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11697418938131013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9082539267221073E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8581973487346584E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEE3-46F4-B36B-70E4DA029175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31414298224663634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68585701775336361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31139297357752571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99199952919020706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47324609615951518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AEE3-46F4-B36B-70E4DA029175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBINADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31414298224663634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68585701775336361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31139297357752571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99199952919020706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47324609615951518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AEE3-46F4-B36B-70E4DA029175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213434959"/>
+        <c:axId val="214576671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213434959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214576671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214576671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213434959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho dos descritores  com 2 PCA com OC-SVM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6434997213597643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3565002786402357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42399130504915139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39965243778510717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40954409978393447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5989-4893-BAB6-C5AF87211018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9999"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.66435793328556647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33564206671443353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35491430138488966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11005172585649081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16431172503360392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5989-4893-BAB6-C5AF87211018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SURF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37171449480381891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62828550519618109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32291890238941701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9308999201632373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47840561433380752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5989-4893-BAB6-C5AF87211018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.35852364683944832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64147635316055163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31581457708148492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91246859321104379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46851260952664608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5989-4893-BAB6-C5AF87211018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBINADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37040442639917204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62959557360082785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32262481995057202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92870430631672585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47814791997404216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5989-4893-BAB6-C5AF87211018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213434959"/>
+        <c:axId val="214576671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213434959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214576671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214576671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213434959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho dos descritores com 3 PCA com OC-SVM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$2:$X$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.59671204521932963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40328795478067037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40354393007047296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61802295355544712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48599099896340958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-664D-4E13-82CD-977E02C3B6F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9999"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$3:$X$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.66288263592141683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33711736407858317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36181651681651683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10326082554330762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15858427388650276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-664D-4E13-82CD-977E02C3B6F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SURF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64599952233102464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35400047766897541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24852431881843645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4799339356639835E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11314752535377218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-664D-4E13-82CD-977E02C3B6F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.35442639917204055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64557360082795956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31258994670540641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89444841665382813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46246978999199084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-664D-4E13-82CD-977E02C3B6F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBINADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.53037576626064797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46962423373935192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33058149741644061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50213407640095697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39721841738837016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-664D-4E13-82CD-977E02C3B6F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213434959"/>
+        <c:axId val="214576671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213434959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214576671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214576671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213434959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -524,7 +2512,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$2</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -548,7 +2536,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -571,7 +2559,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$2:$F$2</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -604,7 +2592,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$3</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -625,7 +2613,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -648,7 +2636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$3:$F$3</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -681,7 +2669,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$4</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -702,7 +2690,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -725,7 +2713,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$4:$F$4</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -758,7 +2746,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$5</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -779,7 +2767,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -802,7 +2790,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$5:$F$5</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -835,7 +2823,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$6</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -856,7 +2844,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -879,7 +2867,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$6:$F$6</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1104,6 +3092,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1646,7 +3754,1635 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4962DCE-E107-4E44-8BF6-1EACC9FCB738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A96410-4D77-4264-8FED-EE77A975240F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3208C182-24D9-49D8-8357-9F0DACE75700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1988,8 +5724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A9FFC0-4EA9-4DAB-A402-2F4F77CE1FBA}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,18 +5779,18 @@
       <c r="D4" s="15"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="I7" s="33" t="s">
+      <c r="B7" s="33"/>
+      <c r="I7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="Q7" s="33" t="s">
+      <c r="J7" s="34"/>
+      <c r="Q7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="33"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -3580,11 +7316,2513 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCE5D4-733F-4A17-B88C-142D72D88789}">
+  <dimension ref="A1:AN58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:AN58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.40452989411671042</v>
+      </c>
+      <c r="C2">
+        <v>0.59547010588328952</v>
+      </c>
+      <c r="D2">
+        <v>0.34274689732767144</v>
+      </c>
+      <c r="E2">
+        <v>0.99016829229293246</v>
+      </c>
+      <c r="F2">
+        <v>0.50823504259424457</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.6434997213597643</v>
+      </c>
+      <c r="L2">
+        <v>0.3565002786402357</v>
+      </c>
+      <c r="M2">
+        <v>0.42399130504915139</v>
+      </c>
+      <c r="N2">
+        <v>0.39965243778510717</v>
+      </c>
+      <c r="O2">
+        <v>0.40954409978393447</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.59671204521932963</v>
+      </c>
+      <c r="U2">
+        <v>0.40328795478067037</v>
+      </c>
+      <c r="V2">
+        <v>0.40354393007047296</v>
+      </c>
+      <c r="W2">
+        <v>0.61802295355544712</v>
+      </c>
+      <c r="X2">
+        <v>0.48599099896340958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.31414298224663634</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.68585701775336361</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.31139297357752571</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.99199952919020706</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0.47324609615951518</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0.66435793328556647</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0.33564206671443353</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0.35491430138488966</v>
+      </c>
+      <c r="N3" s="32">
+        <v>0.11005172585649081</v>
+      </c>
+      <c r="O3" s="32">
+        <v>0.16431172503360392</v>
+      </c>
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="32">
+        <v>0.66288263592141683</v>
+      </c>
+      <c r="U3" s="32">
+        <v>0.33711736407858317</v>
+      </c>
+      <c r="V3" s="32">
+        <v>0.36181651681651683</v>
+      </c>
+      <c r="W3" s="32">
+        <v>0.10326082554330762</v>
+      </c>
+      <c r="X3" s="32">
+        <v>0.15858427388650276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.59733699546214458</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.40266300453785525</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.11697418938131013</v>
+      </c>
+      <c r="E4" s="32">
+        <v>4.9082539267221073E-2</v>
+      </c>
+      <c r="F4" s="32">
+        <v>6.8581973487346584E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0.37171449480381891</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0.62828550519618109</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0.32291890238941701</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0.9308999201632373</v>
+      </c>
+      <c r="O4" s="32">
+        <v>0.47840561433380752</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="32">
+        <v>0.64599952233102464</v>
+      </c>
+      <c r="U4" s="32">
+        <v>0.35400047766897541</v>
+      </c>
+      <c r="V4" s="32">
+        <v>0.24852431881843645</v>
+      </c>
+      <c r="W4" s="32">
+        <v>7.4799339356639835E-2</v>
+      </c>
+      <c r="X4" s="32">
+        <v>0.11314752535377218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.31414298224663634</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.68585701775336361</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.31139297357752571</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.99199952919020706</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.47324609615951518</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0.35852364683944832</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0.64147635316055163</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0.31581457708148492</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0.91246859321104379</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0.46851260952664608</v>
+      </c>
+      <c r="S5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="32">
+        <v>0.35442639917204055</v>
+      </c>
+      <c r="U5" s="32">
+        <v>0.64557360082795956</v>
+      </c>
+      <c r="V5" s="32">
+        <v>0.31258994670540641</v>
+      </c>
+      <c r="W5" s="32">
+        <v>0.89444841665382813</v>
+      </c>
+      <c r="X5" s="32">
+        <v>0.46246978999199084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.31414298224663634</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.68585701775336361</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.31139297357752571</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0.99199952919020706</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.47324609615951518</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0.37040442639917204</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0.62959557360082785</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0.32262481995057202</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0.92870430631672585</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0.47814791997404216</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="32">
+        <v>0.53037576626064797</v>
+      </c>
+      <c r="U6" s="32">
+        <v>0.46962423373935192</v>
+      </c>
+      <c r="V6" s="32">
+        <v>0.33058149741644061</v>
+      </c>
+      <c r="W6" s="32">
+        <v>0.50213407640095697</v>
+      </c>
+      <c r="X6" s="32">
+        <v>0.39721841738837016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="34"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="34"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="34"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="34"/>
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="34"/>
+      <c r="AM30" s="34"/>
+      <c r="AN30" s="34"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="34"/>
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="34"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AM33" s="34"/>
+      <c r="AN33" s="34"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="34"/>
+      <c r="AK35" s="34"/>
+      <c r="AL35" s="34"/>
+      <c r="AM35" s="34"/>
+      <c r="AN35" s="34"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="34"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="34"/>
+      <c r="AJ37" s="34"/>
+      <c r="AK37" s="34"/>
+      <c r="AL37" s="34"/>
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="34"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="34"/>
+      <c r="AK38" s="34"/>
+      <c r="AL38" s="34"/>
+      <c r="AM38" s="34"/>
+      <c r="AN38" s="34"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="34"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="34"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="34"/>
+      <c r="AI40" s="34"/>
+      <c r="AJ40" s="34"/>
+      <c r="AK40" s="34"/>
+      <c r="AL40" s="34"/>
+      <c r="AM40" s="34"/>
+      <c r="AN40" s="34"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="34"/>
+      <c r="AH41" s="34"/>
+      <c r="AI41" s="34"/>
+      <c r="AJ41" s="34"/>
+      <c r="AK41" s="34"/>
+      <c r="AL41" s="34"/>
+      <c r="AM41" s="34"/>
+      <c r="AN41" s="34"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="34"/>
+      <c r="AH42" s="34"/>
+      <c r="AI42" s="34"/>
+      <c r="AJ42" s="34"/>
+      <c r="AK42" s="34"/>
+      <c r="AL42" s="34"/>
+      <c r="AM42" s="34"/>
+      <c r="AN42" s="34"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="34"/>
+      <c r="AL43" s="34"/>
+      <c r="AM43" s="34"/>
+      <c r="AN43" s="34"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="34"/>
+      <c r="AG44" s="34"/>
+      <c r="AH44" s="34"/>
+      <c r="AI44" s="34"/>
+      <c r="AJ44" s="34"/>
+      <c r="AK44" s="34"/>
+      <c r="AL44" s="34"/>
+      <c r="AM44" s="34"/>
+      <c r="AN44" s="34"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="34"/>
+      <c r="AH45" s="34"/>
+      <c r="AI45" s="34"/>
+      <c r="AJ45" s="34"/>
+      <c r="AK45" s="34"/>
+      <c r="AL45" s="34"/>
+      <c r="AM45" s="34"/>
+      <c r="AN45" s="34"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
+      <c r="AG46" s="34"/>
+      <c r="AH46" s="34"/>
+      <c r="AI46" s="34"/>
+      <c r="AJ46" s="34"/>
+      <c r="AK46" s="34"/>
+      <c r="AL46" s="34"/>
+      <c r="AM46" s="34"/>
+      <c r="AN46" s="34"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="34"/>
+      <c r="AH47" s="34"/>
+      <c r="AI47" s="34"/>
+      <c r="AJ47" s="34"/>
+      <c r="AK47" s="34"/>
+      <c r="AL47" s="34"/>
+      <c r="AM47" s="34"/>
+      <c r="AN47" s="34"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="34"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="34"/>
+      <c r="AK48" s="34"/>
+      <c r="AL48" s="34"/>
+      <c r="AM48" s="34"/>
+      <c r="AN48" s="34"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="34"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="34"/>
+      <c r="AJ49" s="34"/>
+      <c r="AK49" s="34"/>
+      <c r="AL49" s="34"/>
+      <c r="AM49" s="34"/>
+      <c r="AN49" s="34"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
+      <c r="AK50" s="34"/>
+      <c r="AL50" s="34"/>
+      <c r="AM50" s="34"/>
+      <c r="AN50" s="34"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="34"/>
+      <c r="AN51" s="34"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="34"/>
+      <c r="AG52" s="34"/>
+      <c r="AH52" s="34"/>
+      <c r="AI52" s="34"/>
+      <c r="AJ52" s="34"/>
+      <c r="AK52" s="34"/>
+      <c r="AL52" s="34"/>
+      <c r="AM52" s="34"/>
+      <c r="AN52" s="34"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
+      <c r="AD53" s="34"/>
+      <c r="AE53" s="34"/>
+      <c r="AF53" s="34"/>
+      <c r="AG53" s="34"/>
+      <c r="AH53" s="34"/>
+      <c r="AI53" s="34"/>
+      <c r="AJ53" s="34"/>
+      <c r="AK53" s="34"/>
+      <c r="AL53" s="34"/>
+      <c r="AM53" s="34"/>
+      <c r="AN53" s="34"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
+      <c r="AD54" s="34"/>
+      <c r="AE54" s="34"/>
+      <c r="AF54" s="34"/>
+      <c r="AG54" s="34"/>
+      <c r="AH54" s="34"/>
+      <c r="AI54" s="34"/>
+      <c r="AJ54" s="34"/>
+      <c r="AK54" s="34"/>
+      <c r="AL54" s="34"/>
+      <c r="AM54" s="34"/>
+      <c r="AN54" s="34"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="34"/>
+      <c r="AH55" s="34"/>
+      <c r="AI55" s="34"/>
+      <c r="AJ55" s="34"/>
+      <c r="AK55" s="34"/>
+      <c r="AL55" s="34"/>
+      <c r="AM55" s="34"/>
+      <c r="AN55" s="34"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="34"/>
+      <c r="AD56" s="34"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="34"/>
+      <c r="AG56" s="34"/>
+      <c r="AH56" s="34"/>
+      <c r="AI56" s="34"/>
+      <c r="AJ56" s="34"/>
+      <c r="AK56" s="34"/>
+      <c r="AL56" s="34"/>
+      <c r="AM56" s="34"/>
+      <c r="AN56" s="34"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="34"/>
+      <c r="AF57" s="34"/>
+      <c r="AG57" s="34"/>
+      <c r="AH57" s="34"/>
+      <c r="AI57" s="34"/>
+      <c r="AJ57" s="34"/>
+      <c r="AK57" s="34"/>
+      <c r="AL57" s="34"/>
+      <c r="AM57" s="34"/>
+      <c r="AN57" s="34"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
+      <c r="AD58" s="34"/>
+      <c r="AE58" s="34"/>
+      <c r="AF58" s="34"/>
+      <c r="AG58" s="34"/>
+      <c r="AH58" s="34"/>
+      <c r="AI58" s="34"/>
+      <c r="AJ58" s="34"/>
+      <c r="AK58" s="34"/>
+      <c r="AL58" s="34"/>
+      <c r="AM58" s="34"/>
+      <c r="AN58" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:AN58"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF74DF07-4F6B-4035-A97C-47F6EC53B2DC}">
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:G39"/>
+      <selection activeCell="S39" sqref="S39:W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,18 +9887,18 @@
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="I6" s="33" t="s">
+      <c r="B6" s="33"/>
+      <c r="I6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="Q6" s="33" t="s">
+      <c r="J6" s="34"/>
+      <c r="Q6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="33"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5166,7 +11404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8CE99F-AB1B-42D5-8433-860A234A6C99}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -5454,12 +11692,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A24BDA-81EC-45D6-82C4-BA7313F1BE61}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40:O40"/>
+      <selection activeCell="S40" sqref="S40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,18 +11751,18 @@
       <c r="D4" s="15"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="I7" s="33" t="s">
+      <c r="B7" s="33"/>
+      <c r="I7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="Q7" s="33" t="s">
+      <c r="J7" s="34"/>
+      <c r="Q7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="33"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -7103,12 +13341,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7633C9-1321-4BA4-B8FD-E320CD2D249F}">
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40:O40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7189,18 +13427,18 @@
       <c r="D4" s="15"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="I7" s="33" t="s">
+      <c r="B7" s="33"/>
+      <c r="I7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="Q7" s="33" t="s">
+      <c r="J7" s="34"/>
+      <c r="Q7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="33"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -8698,18 +14936,18 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="I44" s="33" t="s">
+      <c r="B44" s="33"/>
+      <c r="I44" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="33"/>
-      <c r="Q44" s="33" t="s">
+      <c r="J44" s="34"/>
+      <c r="Q44" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="33"/>
+      <c r="R44" s="34"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -10219,7 +16457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D900081-7699-48C5-839C-4F0B70944A15}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -10371,354 +16609,354 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10729,12 +16967,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFDA701-C8DD-445E-8E39-BA8E0FB5E18A}">
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:G39"/>
+      <selection activeCell="S39" sqref="S39:W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10782,18 +17020,18 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="I6" s="33" t="s">
+      <c r="B6" s="33"/>
+      <c r="I6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="Q6" s="33" t="s">
+      <c r="J6" s="34"/>
+      <c r="Q6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="33"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/testes/svm.xlsx
+++ b/testes/svm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B6EB0-6772-4757-B844-82433DF051CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9790A917-5C63-4805-8AA0-DBB106A83639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="54">
   <si>
     <t>HOG</t>
   </si>
@@ -555,22 +555,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -578,23 +572,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$2:$F$2</c:f>
+              <c:f>'Grafico PCA'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.40452989411671042</c:v>
+                  <c:v>0.34274689732767144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59547010588328952</c:v>
+                  <c:v>0.99016829229293246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34274689732767144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99016829229293246</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.50823504259424457</c:v>
                 </c:pt>
               </c:numCache>
@@ -632,22 +620,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -655,23 +637,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$3:$F$3</c:f>
+              <c:f>'Grafico PCA'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.31414298224663634</c:v>
+                  <c:v>0.31139297357752571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68585701775336361</c:v>
+                  <c:v>0.99199952919020706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31139297357752571</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99199952919020706</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.47324609615951518</c:v>
                 </c:pt>
               </c:numCache>
@@ -709,22 +685,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -732,23 +702,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$4:$F$4</c:f>
+              <c:f>'Grafico PCA'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.59733699546214458</c:v>
+                  <c:v>0.11697418938131013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40266300453785525</c:v>
+                  <c:v>4.9082539267221073E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11697418938131013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9082539267221073E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>6.8581973487346584E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -786,22 +750,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -809,23 +767,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$5:$F$5</c:f>
+              <c:f>'Grafico PCA'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.31414298224663634</c:v>
+                  <c:v>0.31139297357752571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68585701775336361</c:v>
+                  <c:v>0.99199952919020706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31139297357752571</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99199952919020706</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.47324609615951518</c:v>
                 </c:pt>
               </c:numCache>
@@ -863,22 +815,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -886,23 +832,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$6:$F$6</c:f>
+              <c:f>'Grafico PCA'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.31414298224663634</c:v>
+                  <c:v>0.31139297357752571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68585701775336361</c:v>
+                  <c:v>0.99199952919020706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31139297357752571</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99199952919020706</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.47324609615951518</c:v>
                 </c:pt>
               </c:numCache>
@@ -1216,22 +1156,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1239,23 +1173,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$2:$O$2</c:f>
+              <c:f>'Grafico PCA'!$K$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6434997213597643</c:v>
+                  <c:v>0.42399130504915139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3565002786402357</c:v>
+                  <c:v>0.39965243778510717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42399130504915139</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.39965243778510717</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.40954409978393447</c:v>
                 </c:pt>
               </c:numCache>
@@ -1293,22 +1221,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1316,23 +1238,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$3:$O$3</c:f>
+              <c:f>'Grafico PCA'!$K$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.66435793328556647</c:v>
+                  <c:v>0.35491430138488966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33564206671443353</c:v>
+                  <c:v>0.11005172585649081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35491430138488966</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11005172585649081</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.16431172503360392</c:v>
                 </c:pt>
               </c:numCache>
@@ -1370,22 +1286,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1393,23 +1303,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$4:$O$4</c:f>
+              <c:f>'Grafico PCA'!$K$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.37171449480381891</c:v>
+                  <c:v>0.32291890238941701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62828550519618109</c:v>
+                  <c:v>0.9308999201632373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32291890238941701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9308999201632373</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.47840561433380752</c:v>
                 </c:pt>
               </c:numCache>
@@ -1447,22 +1351,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1470,23 +1368,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$5:$O$5</c:f>
+              <c:f>'Grafico PCA'!$K$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.35852364683944832</c:v>
+                  <c:v>0.31581457708148492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64147635316055163</c:v>
+                  <c:v>0.91246859321104379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31581457708148492</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91246859321104379</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.46851260952664608</c:v>
                 </c:pt>
               </c:numCache>
@@ -1524,22 +1416,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1547,23 +1433,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$6:$O$6</c:f>
+              <c:f>'Grafico PCA'!$K$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.37040442639917204</c:v>
+                  <c:v>0.32262481995057202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62959557360082785</c:v>
+                  <c:v>0.92870430631672585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32262481995057202</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92870430631672585</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.47814791997404216</c:v>
                 </c:pt>
               </c:numCache>
@@ -1876,22 +1756,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1899,23 +1773,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$2:$X$2</c:f>
+              <c:f>'Grafico PCA'!$T$2:$V$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.59671204521932963</c:v>
+                  <c:v>0.40354393007047296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40328795478067037</c:v>
+                  <c:v>0.61802295355544712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40354393007047296</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61802295355544712</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.48599099896340958</c:v>
                 </c:pt>
               </c:numCache>
@@ -1953,22 +1821,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1976,23 +1838,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$3:$X$3</c:f>
+              <c:f>'Grafico PCA'!$T$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.66288263592141683</c:v>
+                  <c:v>0.36181651681651683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33711736407858317</c:v>
+                  <c:v>0.10326082554330762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36181651681651683</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10326082554330762</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.15858427388650276</c:v>
                 </c:pt>
               </c:numCache>
@@ -2030,22 +1886,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2053,23 +1903,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$4:$X$4</c:f>
+              <c:f>'Grafico PCA'!$T$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.64599952233102464</c:v>
+                  <c:v>0.24852431881843645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35400047766897541</c:v>
+                  <c:v>7.4799339356639835E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24852431881843645</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4799339356639835E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.11314752535377218</c:v>
                 </c:pt>
               </c:numCache>
@@ -2107,22 +1951,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2130,23 +1968,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$5:$X$5</c:f>
+              <c:f>'Grafico PCA'!$T$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.35442639917204055</c:v>
+                  <c:v>0.31258994670540641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64557360082795956</c:v>
+                  <c:v>0.89444841665382813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31258994670540641</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89444841665382813</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.46246978999199084</c:v>
                 </c:pt>
               </c:numCache>
@@ -2184,22 +2016,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2207,23 +2033,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$6:$X$6</c:f>
+              <c:f>'Grafico PCA'!$T$6:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53037576626064797</c:v>
+                  <c:v>0.33058149741644061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46962423373935192</c:v>
+                  <c:v>0.50213407640095697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33058149741644061</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50213407640095697</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.39721841738837016</c:v>
                 </c:pt>
               </c:numCache>
@@ -7319,8 +7139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCE5D4-733F-4A17-B88C-142D72D88789}">
   <dimension ref="A1:AN58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:AN58"/>
+    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7335,54 +7155,36 @@
         <v>53</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="32" t="s">
         <v>11</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U1" s="32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V1" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7391,54 +7193,36 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.40452989411671042</v>
+        <v>0.34274689732767144</v>
       </c>
       <c r="C2">
-        <v>0.59547010588328952</v>
+        <v>0.99016829229293246</v>
       </c>
       <c r="D2">
-        <v>0.34274689732767144</v>
-      </c>
-      <c r="E2">
-        <v>0.99016829229293246</v>
-      </c>
-      <c r="F2">
         <v>0.50823504259424457</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6434997213597643</v>
+        <v>0.42399130504915139</v>
       </c>
       <c r="L2">
-        <v>0.3565002786402357</v>
+        <v>0.39965243778510717</v>
       </c>
       <c r="M2">
-        <v>0.42399130504915139</v>
-      </c>
-      <c r="N2">
-        <v>0.39965243778510717</v>
-      </c>
-      <c r="O2">
         <v>0.40954409978393447</v>
       </c>
       <c r="S2" t="s">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.59671204521932963</v>
+        <v>0.40354393007047296</v>
       </c>
       <c r="U2">
-        <v>0.40328795478067037</v>
+        <v>0.61802295355544712</v>
       </c>
       <c r="V2">
-        <v>0.40354393007047296</v>
-      </c>
-      <c r="W2">
-        <v>0.61802295355544712</v>
-      </c>
-      <c r="X2">
         <v>0.48599099896340958</v>
       </c>
     </row>
@@ -7447,54 +7231,36 @@
         <v>12</v>
       </c>
       <c r="B3" s="32">
-        <v>0.31414298224663634</v>
+        <v>0.31139297357752571</v>
       </c>
       <c r="C3" s="32">
-        <v>0.68585701775336361</v>
+        <v>0.99199952919020706</v>
       </c>
       <c r="D3" s="32">
-        <v>0.31139297357752571</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0.99199952919020706</v>
-      </c>
-      <c r="F3" s="32">
         <v>0.47324609615951518</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="32">
-        <v>0.66435793328556647</v>
+        <v>0.35491430138488966</v>
       </c>
       <c r="L3" s="32">
-        <v>0.33564206671443353</v>
+        <v>0.11005172585649081</v>
       </c>
       <c r="M3" s="32">
-        <v>0.35491430138488966</v>
-      </c>
-      <c r="N3" s="32">
-        <v>0.11005172585649081</v>
-      </c>
-      <c r="O3" s="32">
         <v>0.16431172503360392</v>
       </c>
       <c r="S3" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="32">
-        <v>0.66288263592141683</v>
+        <v>0.36181651681651683</v>
       </c>
       <c r="U3" s="32">
-        <v>0.33711736407858317</v>
+        <v>0.10326082554330762</v>
       </c>
       <c r="V3" s="32">
-        <v>0.36181651681651683</v>
-      </c>
-      <c r="W3" s="32">
-        <v>0.10326082554330762</v>
-      </c>
-      <c r="X3" s="32">
         <v>0.15858427388650276</v>
       </c>
     </row>
@@ -7503,54 +7269,36 @@
         <v>31</v>
       </c>
       <c r="B4" s="32">
-        <v>0.59733699546214458</v>
+        <v>0.11697418938131013</v>
       </c>
       <c r="C4" s="32">
-        <v>0.40266300453785525</v>
+        <v>4.9082539267221073E-2</v>
       </c>
       <c r="D4" s="32">
-        <v>0.11697418938131013</v>
-      </c>
-      <c r="E4" s="32">
-        <v>4.9082539267221073E-2</v>
-      </c>
-      <c r="F4" s="32">
         <v>6.8581973487346584E-2</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
       </c>
       <c r="K4" s="32">
-        <v>0.37171449480381891</v>
+        <v>0.32291890238941701</v>
       </c>
       <c r="L4" s="32">
-        <v>0.62828550519618109</v>
+        <v>0.9308999201632373</v>
       </c>
       <c r="M4" s="32">
-        <v>0.32291890238941701</v>
-      </c>
-      <c r="N4" s="32">
-        <v>0.9308999201632373</v>
-      </c>
-      <c r="O4" s="32">
         <v>0.47840561433380752</v>
       </c>
       <c r="S4" t="s">
         <v>31</v>
       </c>
       <c r="T4" s="32">
-        <v>0.64599952233102464</v>
+        <v>0.24852431881843645</v>
       </c>
       <c r="U4" s="32">
-        <v>0.35400047766897541</v>
+        <v>7.4799339356639835E-2</v>
       </c>
       <c r="V4" s="32">
-        <v>0.24852431881843645</v>
-      </c>
-      <c r="W4" s="32">
-        <v>7.4799339356639835E-2</v>
-      </c>
-      <c r="X4" s="32">
         <v>0.11314752535377218</v>
       </c>
     </row>
@@ -7559,54 +7307,36 @@
         <v>13</v>
       </c>
       <c r="B5" s="32">
-        <v>0.31414298224663634</v>
+        <v>0.31139297357752571</v>
       </c>
       <c r="C5" s="32">
-        <v>0.68585701775336361</v>
+        <v>0.99199952919020706</v>
       </c>
       <c r="D5" s="32">
-        <v>0.31139297357752571</v>
-      </c>
-      <c r="E5" s="32">
-        <v>0.99199952919020706</v>
-      </c>
-      <c r="F5" s="32">
         <v>0.47324609615951518</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="32">
-        <v>0.35852364683944832</v>
+        <v>0.31581457708148492</v>
       </c>
       <c r="L5" s="32">
-        <v>0.64147635316055163</v>
+        <v>0.91246859321104379</v>
       </c>
       <c r="M5" s="32">
-        <v>0.31581457708148492</v>
-      </c>
-      <c r="N5" s="32">
-        <v>0.91246859321104379</v>
-      </c>
-      <c r="O5" s="32">
         <v>0.46851260952664608</v>
       </c>
       <c r="S5" t="s">
         <v>13</v>
       </c>
       <c r="T5" s="32">
-        <v>0.35442639917204055</v>
+        <v>0.31258994670540641</v>
       </c>
       <c r="U5" s="32">
-        <v>0.64557360082795956</v>
+        <v>0.89444841665382813</v>
       </c>
       <c r="V5" s="32">
-        <v>0.31258994670540641</v>
-      </c>
-      <c r="W5" s="32">
-        <v>0.89444841665382813</v>
-      </c>
-      <c r="X5" s="32">
         <v>0.46246978999199084</v>
       </c>
     </row>
@@ -7615,54 +7345,36 @@
         <v>51</v>
       </c>
       <c r="B6" s="32">
-        <v>0.31414298224663634</v>
+        <v>0.31139297357752571</v>
       </c>
       <c r="C6" s="32">
-        <v>0.68585701775336361</v>
+        <v>0.99199952919020706</v>
       </c>
       <c r="D6" s="32">
-        <v>0.31139297357752571</v>
-      </c>
-      <c r="E6" s="32">
-        <v>0.99199952919020706</v>
-      </c>
-      <c r="F6" s="32">
         <v>0.47324609615951518</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="32">
-        <v>0.37040442639917204</v>
+        <v>0.32262481995057202</v>
       </c>
       <c r="L6" s="32">
-        <v>0.62959557360082785</v>
+        <v>0.92870430631672585</v>
       </c>
       <c r="M6" s="32">
-        <v>0.32262481995057202</v>
-      </c>
-      <c r="N6" s="32">
-        <v>0.92870430631672585</v>
-      </c>
-      <c r="O6" s="32">
         <v>0.47814791997404216</v>
       </c>
       <c r="S6" t="s">
         <v>51</v>
       </c>
       <c r="T6" s="32">
-        <v>0.53037576626064797</v>
+        <v>0.33058149741644061</v>
       </c>
       <c r="U6" s="32">
-        <v>0.46962423373935192</v>
+        <v>0.50213407640095697</v>
       </c>
       <c r="V6" s="32">
-        <v>0.33058149741644061</v>
-      </c>
-      <c r="W6" s="32">
-        <v>0.50213407640095697</v>
-      </c>
-      <c r="X6" s="32">
         <v>0.39721841738837016</v>
       </c>
     </row>
@@ -11408,7 +11120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8CE99F-AB1B-42D5-8433-860A234A6C99}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:G34"/>
     </sheetView>
   </sheetViews>

--- a/testes/svm.xlsx
+++ b/testes/svm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481421B4-C05F-435C-85F1-5462F2BC57EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AAE690-A57F-49E1-AFAC-F3E2ABCFD0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6C499453-9C0D-46B5-A272-0BDD090C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="1" r:id="rId1"/>
@@ -532,6 +532,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,12 +548,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2064,22 +2064,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.358749353343342</c:v>
+                  <c:v>31.897633310523631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.506989398630267</c:v>
+                  <c:v>72.038043478260875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.444728440164241</c:v>
+                  <c:v>89.022441764836685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.682736584726989</c:v>
+                  <c:v>13.249773574098461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.728546995459205</c:v>
+                  <c:v>46.885260174837725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.556983612550813</c:v>
+                  <c:v>22.201655658026596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3296,22 +3296,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30.62685298879374</c:v>
+                  <c:v>32.074656293644949</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.570205154408654</c:v>
+                  <c:v>76.351897844157904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.018055751241981</c:v>
+                  <c:v>92.687643558358531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.255555513100461</c:v>
+                  <c:v>10.577052714464665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.048277727481079</c:v>
+                  <c:v>43.043763326073034</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.887676069394622</c:v>
+                  <c:v>18.509065183858535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7038,48 +7038,48 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="K7" s="48" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="K7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="45" t="s">
+      <c r="L7" s="50"/>
+      <c r="M7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="46" t="s">
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
       <c r="T7" s="32" t="s">
         <v>6</v>
       </c>
       <c r="U7" s="32"/>
-      <c r="V7" s="45" t="s">
+      <c r="V7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="46" t="s">
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -8822,8 +8822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCE5D4-733F-4A17-B88C-142D72D88789}">
   <dimension ref="A1:AU58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:W4"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:AU58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9392,71 +9392,71 @@
       <c r="Q6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="40">
-        <v>0.32358749353343341</v>
-      </c>
-      <c r="S6" s="40">
-        <v>0.74506989398630263</v>
-      </c>
-      <c r="T6" s="40">
-        <v>0.91444728440164247</v>
-      </c>
-      <c r="U6" s="40">
-        <v>0.12682736584726989</v>
-      </c>
-      <c r="V6" s="40">
-        <v>0.47728546995459203</v>
-      </c>
-      <c r="W6" s="40">
-        <v>0.21556983612550812</v>
+      <c r="R6">
+        <v>0.31897633310523632</v>
+      </c>
+      <c r="S6">
+        <v>0.72038043478260871</v>
+      </c>
+      <c r="T6">
+        <v>0.89022441764836679</v>
+      </c>
+      <c r="U6">
+        <v>0.13249773574098461</v>
+      </c>
+      <c r="V6">
+        <v>0.46885260174837723</v>
+      </c>
+      <c r="W6">
+        <v>0.22201655658026595</v>
       </c>
       <c r="Y6" s="40" t="s">
         <v>51</v>
       </c>
       <c r="Z6" s="41">
         <f t="shared" si="2"/>
-        <v>32.358749353343342</v>
+        <v>31.897633310523631</v>
       </c>
       <c r="AA6" s="41">
         <f t="shared" si="3"/>
-        <v>74.506989398630267</v>
+        <v>72.038043478260875</v>
       </c>
       <c r="AB6" s="41">
         <f t="shared" si="4"/>
-        <v>91.444728440164241</v>
+        <v>89.022441764836685</v>
       </c>
       <c r="AC6" s="41">
         <f t="shared" si="5"/>
-        <v>12.682736584726989</v>
+        <v>13.249773574098461</v>
       </c>
       <c r="AD6" s="41">
         <f t="shared" si="6"/>
-        <v>47.728546995459205</v>
+        <v>46.885260174837725</v>
       </c>
       <c r="AE6" s="41">
         <f t="shared" si="7"/>
-        <v>21.556983612550813</v>
+        <v>22.201655658026596</v>
       </c>
       <c r="AG6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="42">
-        <v>0.3062685298879374</v>
-      </c>
-      <c r="AI6" s="42">
-        <v>0.68570205154408659</v>
-      </c>
-      <c r="AJ6" s="42">
-        <v>0.48018055751241978</v>
-      </c>
-      <c r="AK6" s="42">
-        <v>0.51255555513100459</v>
-      </c>
-      <c r="AL6" s="42">
-        <v>0.36048277727481076</v>
-      </c>
-      <c r="AM6" s="42">
-        <v>0.55887676069394621</v>
+      <c r="AH6">
+        <v>0.32074656293644949</v>
+      </c>
+      <c r="AI6">
+        <v>0.76351897844157901</v>
+      </c>
+      <c r="AJ6">
+        <v>0.92687643558358523</v>
+      </c>
+      <c r="AK6">
+        <v>0.10577052714464666</v>
+      </c>
+      <c r="AL6">
+        <v>0.43043763326073031</v>
+      </c>
+      <c r="AM6">
+        <v>0.18509065183858533</v>
       </c>
       <c r="AN6" s="42"/>
       <c r="AO6" s="42" t="s">
@@ -9464,2527 +9464,2527 @@
       </c>
       <c r="AP6" s="44">
         <f t="shared" si="8"/>
-        <v>30.62685298879374</v>
+        <v>32.074656293644949</v>
       </c>
       <c r="AQ6" s="44">
         <f t="shared" si="9"/>
-        <v>68.570205154408654</v>
+        <v>76.351897844157904</v>
       </c>
       <c r="AR6" s="44">
         <f t="shared" si="10"/>
-        <v>48.018055751241981</v>
+        <v>92.687643558358531</v>
       </c>
       <c r="AS6" s="44">
         <f t="shared" si="11"/>
-        <v>51.255555513100461</v>
+        <v>10.577052714464665</v>
       </c>
       <c r="AT6" s="44">
         <f t="shared" si="12"/>
-        <v>36.048277727481079</v>
+        <v>43.043763326073034</v>
       </c>
       <c r="AU6" s="44">
         <f t="shared" si="13"/>
-        <v>55.887676069394622</v>
+        <v>18.509065183858535</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="48"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="50"/>
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="48"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="48"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="50"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="50"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="48"/>
-      <c r="AU25" s="48"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="48"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="48"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="50"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="50"/>
+      <c r="AK27" s="50"/>
+      <c r="AL27" s="50"/>
+      <c r="AM27" s="50"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="50"/>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="50"/>
+      <c r="AU27" s="50"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="48"/>
-      <c r="AU28" s="48"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="48"/>
-      <c r="AO29" s="48"/>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="48"/>
-      <c r="AR29" s="48"/>
-      <c r="AS29" s="48"/>
-      <c r="AT29" s="48"/>
-      <c r="AU29" s="48"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="50"/>
+      <c r="AN29" s="50"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="50"/>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="50"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="48"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="48"/>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
-      <c r="AS30" s="48"/>
-      <c r="AT30" s="48"/>
-      <c r="AU30" s="48"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="50"/>
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="50"/>
+      <c r="AK30" s="50"/>
+      <c r="AL30" s="50"/>
+      <c r="AM30" s="50"/>
+      <c r="AN30" s="50"/>
+      <c r="AO30" s="50"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="50"/>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="48"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="50"/>
+      <c r="AI31" s="50"/>
+      <c r="AJ31" s="50"/>
+      <c r="AK31" s="50"/>
+      <c r="AL31" s="50"/>
+      <c r="AM31" s="50"/>
+      <c r="AN31" s="50"/>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="50"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="50"/>
+      <c r="AU31" s="50"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="48"/>
-      <c r="AP32" s="48"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="48"/>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="48"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="50"/>
+      <c r="AI32" s="50"/>
+      <c r="AJ32" s="50"/>
+      <c r="AK32" s="50"/>
+      <c r="AL32" s="50"/>
+      <c r="AM32" s="50"/>
+      <c r="AN32" s="50"/>
+      <c r="AO32" s="50"/>
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="50"/>
+      <c r="AR32" s="50"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="50"/>
+      <c r="AU32" s="50"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="48"/>
-      <c r="AN33" s="48"/>
-      <c r="AO33" s="48"/>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="48"/>
-      <c r="AR33" s="48"/>
-      <c r="AS33" s="48"/>
-      <c r="AT33" s="48"/>
-      <c r="AU33" s="48"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="50"/>
+      <c r="AU33" s="50"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="48"/>
-      <c r="AN34" s="48"/>
-      <c r="AO34" s="48"/>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="48"/>
-      <c r="AR34" s="48"/>
-      <c r="AS34" s="48"/>
-      <c r="AT34" s="48"/>
-      <c r="AU34" s="48"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50"/>
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="50"/>
+      <c r="AP34" s="50"/>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="50"/>
+      <c r="AU34" s="50"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="48"/>
-      <c r="AN35" s="48"/>
-      <c r="AO35" s="48"/>
-      <c r="AP35" s="48"/>
-      <c r="AQ35" s="48"/>
-      <c r="AR35" s="48"/>
-      <c r="AS35" s="48"/>
-      <c r="AT35" s="48"/>
-      <c r="AU35" s="48"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="50"/>
+      <c r="AN35" s="50"/>
+      <c r="AO35" s="50"/>
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="50"/>
+      <c r="AS35" s="50"/>
+      <c r="AT35" s="50"/>
+      <c r="AU35" s="50"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
-      <c r="AM36" s="48"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="48"/>
-      <c r="AP36" s="48"/>
-      <c r="AQ36" s="48"/>
-      <c r="AR36" s="48"/>
-      <c r="AS36" s="48"/>
-      <c r="AT36" s="48"/>
-      <c r="AU36" s="48"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="50"/>
+      <c r="AK36" s="50"/>
+      <c r="AL36" s="50"/>
+      <c r="AM36" s="50"/>
+      <c r="AN36" s="50"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
+      <c r="AQ36" s="50"/>
+      <c r="AR36" s="50"/>
+      <c r="AS36" s="50"/>
+      <c r="AT36" s="50"/>
+      <c r="AU36" s="50"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-      <c r="AM37" s="48"/>
-      <c r="AN37" s="48"/>
-      <c r="AO37" s="48"/>
-      <c r="AP37" s="48"/>
-      <c r="AQ37" s="48"/>
-      <c r="AR37" s="48"/>
-      <c r="AS37" s="48"/>
-      <c r="AT37" s="48"/>
-      <c r="AU37" s="48"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
+      <c r="AM37" s="50"/>
+      <c r="AN37" s="50"/>
+      <c r="AO37" s="50"/>
+      <c r="AP37" s="50"/>
+      <c r="AQ37" s="50"/>
+      <c r="AR37" s="50"/>
+      <c r="AS37" s="50"/>
+      <c r="AT37" s="50"/>
+      <c r="AU37" s="50"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="48"/>
-      <c r="AG38" s="48"/>
-      <c r="AH38" s="48"/>
-      <c r="AI38" s="48"/>
-      <c r="AJ38" s="48"/>
-      <c r="AK38" s="48"/>
-      <c r="AL38" s="48"/>
-      <c r="AM38" s="48"/>
-      <c r="AN38" s="48"/>
-      <c r="AO38" s="48"/>
-      <c r="AP38" s="48"/>
-      <c r="AQ38" s="48"/>
-      <c r="AR38" s="48"/>
-      <c r="AS38" s="48"/>
-      <c r="AT38" s="48"/>
-      <c r="AU38" s="48"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="50"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="50"/>
+      <c r="AK38" s="50"/>
+      <c r="AL38" s="50"/>
+      <c r="AM38" s="50"/>
+      <c r="AN38" s="50"/>
+      <c r="AO38" s="50"/>
+      <c r="AP38" s="50"/>
+      <c r="AQ38" s="50"/>
+      <c r="AR38" s="50"/>
+      <c r="AS38" s="50"/>
+      <c r="AT38" s="50"/>
+      <c r="AU38" s="50"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="48"/>
-      <c r="AG39" s="48"/>
-      <c r="AH39" s="48"/>
-      <c r="AI39" s="48"/>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="48"/>
-      <c r="AL39" s="48"/>
-      <c r="AM39" s="48"/>
-      <c r="AN39" s="48"/>
-      <c r="AO39" s="48"/>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
-      <c r="AR39" s="48"/>
-      <c r="AS39" s="48"/>
-      <c r="AT39" s="48"/>
-      <c r="AU39" s="48"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
+      <c r="AP39" s="50"/>
+      <c r="AQ39" s="50"/>
+      <c r="AR39" s="50"/>
+      <c r="AS39" s="50"/>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="50"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="48"/>
-      <c r="AC40" s="48"/>
-      <c r="AD40" s="48"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="48"/>
-      <c r="AG40" s="48"/>
-      <c r="AH40" s="48"/>
-      <c r="AI40" s="48"/>
-      <c r="AJ40" s="48"/>
-      <c r="AK40" s="48"/>
-      <c r="AL40" s="48"/>
-      <c r="AM40" s="48"/>
-      <c r="AN40" s="48"/>
-      <c r="AO40" s="48"/>
-      <c r="AP40" s="48"/>
-      <c r="AQ40" s="48"/>
-      <c r="AR40" s="48"/>
-      <c r="AS40" s="48"/>
-      <c r="AT40" s="48"/>
-      <c r="AU40" s="48"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="50"/>
+      <c r="AL40" s="50"/>
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="50"/>
+      <c r="AO40" s="50"/>
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="50"/>
+      <c r="AR40" s="50"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="50"/>
+      <c r="AU40" s="50"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="48"/>
-      <c r="AA41" s="48"/>
-      <c r="AB41" s="48"/>
-      <c r="AC41" s="48"/>
-      <c r="AD41" s="48"/>
-      <c r="AE41" s="48"/>
-      <c r="AF41" s="48"/>
-      <c r="AG41" s="48"/>
-      <c r="AH41" s="48"/>
-      <c r="AI41" s="48"/>
-      <c r="AJ41" s="48"/>
-      <c r="AK41" s="48"/>
-      <c r="AL41" s="48"/>
-      <c r="AM41" s="48"/>
-      <c r="AN41" s="48"/>
-      <c r="AO41" s="48"/>
-      <c r="AP41" s="48"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="48"/>
-      <c r="AS41" s="48"/>
-      <c r="AT41" s="48"/>
-      <c r="AU41" s="48"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="50"/>
+      <c r="AL41" s="50"/>
+      <c r="AM41" s="50"/>
+      <c r="AN41" s="50"/>
+      <c r="AO41" s="50"/>
+      <c r="AP41" s="50"/>
+      <c r="AQ41" s="50"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
+      <c r="AT41" s="50"/>
+      <c r="AU41" s="50"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="48"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="48"/>
-      <c r="AC42" s="48"/>
-      <c r="AD42" s="48"/>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="48"/>
-      <c r="AG42" s="48"/>
-      <c r="AH42" s="48"/>
-      <c r="AI42" s="48"/>
-      <c r="AJ42" s="48"/>
-      <c r="AK42" s="48"/>
-      <c r="AL42" s="48"/>
-      <c r="AM42" s="48"/>
-      <c r="AN42" s="48"/>
-      <c r="AO42" s="48"/>
-      <c r="AP42" s="48"/>
-      <c r="AQ42" s="48"/>
-      <c r="AR42" s="48"/>
-      <c r="AS42" s="48"/>
-      <c r="AT42" s="48"/>
-      <c r="AU42" s="48"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50"/>
+      <c r="AJ42" s="50"/>
+      <c r="AK42" s="50"/>
+      <c r="AL42" s="50"/>
+      <c r="AM42" s="50"/>
+      <c r="AN42" s="50"/>
+      <c r="AO42" s="50"/>
+      <c r="AP42" s="50"/>
+      <c r="AQ42" s="50"/>
+      <c r="AR42" s="50"/>
+      <c r="AS42" s="50"/>
+      <c r="AT42" s="50"/>
+      <c r="AU42" s="50"/>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="48"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="48"/>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="48"/>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
-      <c r="AL43" s="48"/>
-      <c r="AM43" s="48"/>
-      <c r="AN43" s="48"/>
-      <c r="AO43" s="48"/>
-      <c r="AP43" s="48"/>
-      <c r="AQ43" s="48"/>
-      <c r="AR43" s="48"/>
-      <c r="AS43" s="48"/>
-      <c r="AT43" s="48"/>
-      <c r="AU43" s="48"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="50"/>
+      <c r="AK43" s="50"/>
+      <c r="AL43" s="50"/>
+      <c r="AM43" s="50"/>
+      <c r="AN43" s="50"/>
+      <c r="AO43" s="50"/>
+      <c r="AP43" s="50"/>
+      <c r="AQ43" s="50"/>
+      <c r="AR43" s="50"/>
+      <c r="AS43" s="50"/>
+      <c r="AT43" s="50"/>
+      <c r="AU43" s="50"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="48"/>
-      <c r="AG44" s="48"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
-      <c r="AL44" s="48"/>
-      <c r="AM44" s="48"/>
-      <c r="AN44" s="48"/>
-      <c r="AO44" s="48"/>
-      <c r="AP44" s="48"/>
-      <c r="AQ44" s="48"/>
-      <c r="AR44" s="48"/>
-      <c r="AS44" s="48"/>
-      <c r="AT44" s="48"/>
-      <c r="AU44" s="48"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="50"/>
+      <c r="AK44" s="50"/>
+      <c r="AL44" s="50"/>
+      <c r="AM44" s="50"/>
+      <c r="AN44" s="50"/>
+      <c r="AO44" s="50"/>
+      <c r="AP44" s="50"/>
+      <c r="AQ44" s="50"/>
+      <c r="AR44" s="50"/>
+      <c r="AS44" s="50"/>
+      <c r="AT44" s="50"/>
+      <c r="AU44" s="50"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
-      <c r="Y45" s="48"/>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="48"/>
-      <c r="AB45" s="48"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="48"/>
-      <c r="AF45" s="48"/>
-      <c r="AG45" s="48"/>
-      <c r="AH45" s="48"/>
-      <c r="AI45" s="48"/>
-      <c r="AJ45" s="48"/>
-      <c r="AK45" s="48"/>
-      <c r="AL45" s="48"/>
-      <c r="AM45" s="48"/>
-      <c r="AN45" s="48"/>
-      <c r="AO45" s="48"/>
-      <c r="AP45" s="48"/>
-      <c r="AQ45" s="48"/>
-      <c r="AR45" s="48"/>
-      <c r="AS45" s="48"/>
-      <c r="AT45" s="48"/>
-      <c r="AU45" s="48"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
+      <c r="AD45" s="50"/>
+      <c r="AE45" s="50"/>
+      <c r="AF45" s="50"/>
+      <c r="AG45" s="50"/>
+      <c r="AH45" s="50"/>
+      <c r="AI45" s="50"/>
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="50"/>
+      <c r="AL45" s="50"/>
+      <c r="AM45" s="50"/>
+      <c r="AN45" s="50"/>
+      <c r="AO45" s="50"/>
+      <c r="AP45" s="50"/>
+      <c r="AQ45" s="50"/>
+      <c r="AR45" s="50"/>
+      <c r="AS45" s="50"/>
+      <c r="AT45" s="50"/>
+      <c r="AU45" s="50"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="48"/>
-      <c r="X46" s="48"/>
-      <c r="Y46" s="48"/>
-      <c r="Z46" s="48"/>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="48"/>
-      <c r="AF46" s="48"/>
-      <c r="AG46" s="48"/>
-      <c r="AH46" s="48"/>
-      <c r="AI46" s="48"/>
-      <c r="AJ46" s="48"/>
-      <c r="AK46" s="48"/>
-      <c r="AL46" s="48"/>
-      <c r="AM46" s="48"/>
-      <c r="AN46" s="48"/>
-      <c r="AO46" s="48"/>
-      <c r="AP46" s="48"/>
-      <c r="AQ46" s="48"/>
-      <c r="AR46" s="48"/>
-      <c r="AS46" s="48"/>
-      <c r="AT46" s="48"/>
-      <c r="AU46" s="48"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
+      <c r="AI46" s="50"/>
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="50"/>
+      <c r="AL46" s="50"/>
+      <c r="AM46" s="50"/>
+      <c r="AN46" s="50"/>
+      <c r="AO46" s="50"/>
+      <c r="AP46" s="50"/>
+      <c r="AQ46" s="50"/>
+      <c r="AR46" s="50"/>
+      <c r="AS46" s="50"/>
+      <c r="AT46" s="50"/>
+      <c r="AU46" s="50"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="48"/>
-      <c r="AF47" s="48"/>
-      <c r="AG47" s="48"/>
-      <c r="AH47" s="48"/>
-      <c r="AI47" s="48"/>
-      <c r="AJ47" s="48"/>
-      <c r="AK47" s="48"/>
-      <c r="AL47" s="48"/>
-      <c r="AM47" s="48"/>
-      <c r="AN47" s="48"/>
-      <c r="AO47" s="48"/>
-      <c r="AP47" s="48"/>
-      <c r="AQ47" s="48"/>
-      <c r="AR47" s="48"/>
-      <c r="AS47" s="48"/>
-      <c r="AT47" s="48"/>
-      <c r="AU47" s="48"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="50"/>
+      <c r="AA47" s="50"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="50"/>
+      <c r="AD47" s="50"/>
+      <c r="AE47" s="50"/>
+      <c r="AF47" s="50"/>
+      <c r="AG47" s="50"/>
+      <c r="AH47" s="50"/>
+      <c r="AI47" s="50"/>
+      <c r="AJ47" s="50"/>
+      <c r="AK47" s="50"/>
+      <c r="AL47" s="50"/>
+      <c r="AM47" s="50"/>
+      <c r="AN47" s="50"/>
+      <c r="AO47" s="50"/>
+      <c r="AP47" s="50"/>
+      <c r="AQ47" s="50"/>
+      <c r="AR47" s="50"/>
+      <c r="AS47" s="50"/>
+      <c r="AT47" s="50"/>
+      <c r="AU47" s="50"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-      <c r="X48" s="48"/>
-      <c r="Y48" s="48"/>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="48"/>
-      <c r="AB48" s="48"/>
-      <c r="AC48" s="48"/>
-      <c r="AD48" s="48"/>
-      <c r="AE48" s="48"/>
-      <c r="AF48" s="48"/>
-      <c r="AG48" s="48"/>
-      <c r="AH48" s="48"/>
-      <c r="AI48" s="48"/>
-      <c r="AJ48" s="48"/>
-      <c r="AK48" s="48"/>
-      <c r="AL48" s="48"/>
-      <c r="AM48" s="48"/>
-      <c r="AN48" s="48"/>
-      <c r="AO48" s="48"/>
-      <c r="AP48" s="48"/>
-      <c r="AQ48" s="48"/>
-      <c r="AR48" s="48"/>
-      <c r="AS48" s="48"/>
-      <c r="AT48" s="48"/>
-      <c r="AU48" s="48"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="50"/>
+      <c r="X48" s="50"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
+      <c r="AP48" s="50"/>
+      <c r="AQ48" s="50"/>
+      <c r="AR48" s="50"/>
+      <c r="AS48" s="50"/>
+      <c r="AT48" s="50"/>
+      <c r="AU48" s="50"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="48"/>
-      <c r="X49" s="48"/>
-      <c r="Y49" s="48"/>
-      <c r="Z49" s="48"/>
-      <c r="AA49" s="48"/>
-      <c r="AB49" s="48"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="48"/>
-      <c r="AF49" s="48"/>
-      <c r="AG49" s="48"/>
-      <c r="AH49" s="48"/>
-      <c r="AI49" s="48"/>
-      <c r="AJ49" s="48"/>
-      <c r="AK49" s="48"/>
-      <c r="AL49" s="48"/>
-      <c r="AM49" s="48"/>
-      <c r="AN49" s="48"/>
-      <c r="AO49" s="48"/>
-      <c r="AP49" s="48"/>
-      <c r="AQ49" s="48"/>
-      <c r="AR49" s="48"/>
-      <c r="AS49" s="48"/>
-      <c r="AT49" s="48"/>
-      <c r="AU49" s="48"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="50"/>
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="50"/>
+      <c r="AR49" s="50"/>
+      <c r="AS49" s="50"/>
+      <c r="AT49" s="50"/>
+      <c r="AU49" s="50"/>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="48"/>
-      <c r="W50" s="48"/>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="48"/>
-      <c r="Z50" s="48"/>
-      <c r="AA50" s="48"/>
-      <c r="AB50" s="48"/>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="48"/>
-      <c r="AE50" s="48"/>
-      <c r="AF50" s="48"/>
-      <c r="AG50" s="48"/>
-      <c r="AH50" s="48"/>
-      <c r="AI50" s="48"/>
-      <c r="AJ50" s="48"/>
-      <c r="AK50" s="48"/>
-      <c r="AL50" s="48"/>
-      <c r="AM50" s="48"/>
-      <c r="AN50" s="48"/>
-      <c r="AO50" s="48"/>
-      <c r="AP50" s="48"/>
-      <c r="AQ50" s="48"/>
-      <c r="AR50" s="48"/>
-      <c r="AS50" s="48"/>
-      <c r="AT50" s="48"/>
-      <c r="AU50" s="48"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="50"/>
+      <c r="AL50" s="50"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="50"/>
+      <c r="AR50" s="50"/>
+      <c r="AS50" s="50"/>
+      <c r="AT50" s="50"/>
+      <c r="AU50" s="50"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="48"/>
-      <c r="AB51" s="48"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="48"/>
-      <c r="AE51" s="48"/>
-      <c r="AF51" s="48"/>
-      <c r="AG51" s="48"/>
-      <c r="AH51" s="48"/>
-      <c r="AI51" s="48"/>
-      <c r="AJ51" s="48"/>
-      <c r="AK51" s="48"/>
-      <c r="AL51" s="48"/>
-      <c r="AM51" s="48"/>
-      <c r="AN51" s="48"/>
-      <c r="AO51" s="48"/>
-      <c r="AP51" s="48"/>
-      <c r="AQ51" s="48"/>
-      <c r="AR51" s="48"/>
-      <c r="AS51" s="48"/>
-      <c r="AT51" s="48"/>
-      <c r="AU51" s="48"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="50"/>
+      <c r="AL51" s="50"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="50"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="50"/>
+      <c r="AR51" s="50"/>
+      <c r="AS51" s="50"/>
+      <c r="AT51" s="50"/>
+      <c r="AU51" s="50"/>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="48"/>
-      <c r="T52" s="48"/>
-      <c r="U52" s="48"/>
-      <c r="V52" s="48"/>
-      <c r="W52" s="48"/>
-      <c r="X52" s="48"/>
-      <c r="Y52" s="48"/>
-      <c r="Z52" s="48"/>
-      <c r="AA52" s="48"/>
-      <c r="AB52" s="48"/>
-      <c r="AC52" s="48"/>
-      <c r="AD52" s="48"/>
-      <c r="AE52" s="48"/>
-      <c r="AF52" s="48"/>
-      <c r="AG52" s="48"/>
-      <c r="AH52" s="48"/>
-      <c r="AI52" s="48"/>
-      <c r="AJ52" s="48"/>
-      <c r="AK52" s="48"/>
-      <c r="AL52" s="48"/>
-      <c r="AM52" s="48"/>
-      <c r="AN52" s="48"/>
-      <c r="AO52" s="48"/>
-      <c r="AP52" s="48"/>
-      <c r="AQ52" s="48"/>
-      <c r="AR52" s="48"/>
-      <c r="AS52" s="48"/>
-      <c r="AT52" s="48"/>
-      <c r="AU52" s="48"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="50"/>
+      <c r="AK52" s="50"/>
+      <c r="AL52" s="50"/>
+      <c r="AM52" s="50"/>
+      <c r="AN52" s="50"/>
+      <c r="AO52" s="50"/>
+      <c r="AP52" s="50"/>
+      <c r="AQ52" s="50"/>
+      <c r="AR52" s="50"/>
+      <c r="AS52" s="50"/>
+      <c r="AT52" s="50"/>
+      <c r="AU52" s="50"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="48"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="48"/>
-      <c r="W53" s="48"/>
-      <c r="X53" s="48"/>
-      <c r="Y53" s="48"/>
-      <c r="Z53" s="48"/>
-      <c r="AA53" s="48"/>
-      <c r="AB53" s="48"/>
-      <c r="AC53" s="48"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="48"/>
-      <c r="AF53" s="48"/>
-      <c r="AG53" s="48"/>
-      <c r="AH53" s="48"/>
-      <c r="AI53" s="48"/>
-      <c r="AJ53" s="48"/>
-      <c r="AK53" s="48"/>
-      <c r="AL53" s="48"/>
-      <c r="AM53" s="48"/>
-      <c r="AN53" s="48"/>
-      <c r="AO53" s="48"/>
-      <c r="AP53" s="48"/>
-      <c r="AQ53" s="48"/>
-      <c r="AR53" s="48"/>
-      <c r="AS53" s="48"/>
-      <c r="AT53" s="48"/>
-      <c r="AU53" s="48"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="50"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="50"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="50"/>
+      <c r="AD53" s="50"/>
+      <c r="AE53" s="50"/>
+      <c r="AF53" s="50"/>
+      <c r="AG53" s="50"/>
+      <c r="AH53" s="50"/>
+      <c r="AI53" s="50"/>
+      <c r="AJ53" s="50"/>
+      <c r="AK53" s="50"/>
+      <c r="AL53" s="50"/>
+      <c r="AM53" s="50"/>
+      <c r="AN53" s="50"/>
+      <c r="AO53" s="50"/>
+      <c r="AP53" s="50"/>
+      <c r="AQ53" s="50"/>
+      <c r="AR53" s="50"/>
+      <c r="AS53" s="50"/>
+      <c r="AT53" s="50"/>
+      <c r="AU53" s="50"/>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="48"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="48"/>
-      <c r="W54" s="48"/>
-      <c r="X54" s="48"/>
-      <c r="Y54" s="48"/>
-      <c r="Z54" s="48"/>
-      <c r="AA54" s="48"/>
-      <c r="AB54" s="48"/>
-      <c r="AC54" s="48"/>
-      <c r="AD54" s="48"/>
-      <c r="AE54" s="48"/>
-      <c r="AF54" s="48"/>
-      <c r="AG54" s="48"/>
-      <c r="AH54" s="48"/>
-      <c r="AI54" s="48"/>
-      <c r="AJ54" s="48"/>
-      <c r="AK54" s="48"/>
-      <c r="AL54" s="48"/>
-      <c r="AM54" s="48"/>
-      <c r="AN54" s="48"/>
-      <c r="AO54" s="48"/>
-      <c r="AP54" s="48"/>
-      <c r="AQ54" s="48"/>
-      <c r="AR54" s="48"/>
-      <c r="AS54" s="48"/>
-      <c r="AT54" s="48"/>
-      <c r="AU54" s="48"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="50"/>
+      <c r="X54" s="50"/>
+      <c r="Y54" s="50"/>
+      <c r="Z54" s="50"/>
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="50"/>
+      <c r="AC54" s="50"/>
+      <c r="AD54" s="50"/>
+      <c r="AE54" s="50"/>
+      <c r="AF54" s="50"/>
+      <c r="AG54" s="50"/>
+      <c r="AH54" s="50"/>
+      <c r="AI54" s="50"/>
+      <c r="AJ54" s="50"/>
+      <c r="AK54" s="50"/>
+      <c r="AL54" s="50"/>
+      <c r="AM54" s="50"/>
+      <c r="AN54" s="50"/>
+      <c r="AO54" s="50"/>
+      <c r="AP54" s="50"/>
+      <c r="AQ54" s="50"/>
+      <c r="AR54" s="50"/>
+      <c r="AS54" s="50"/>
+      <c r="AT54" s="50"/>
+      <c r="AU54" s="50"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="48"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="48"/>
-      <c r="X55" s="48"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="48"/>
-      <c r="AA55" s="48"/>
-      <c r="AB55" s="48"/>
-      <c r="AC55" s="48"/>
-      <c r="AD55" s="48"/>
-      <c r="AE55" s="48"/>
-      <c r="AF55" s="48"/>
-      <c r="AG55" s="48"/>
-      <c r="AH55" s="48"/>
-      <c r="AI55" s="48"/>
-      <c r="AJ55" s="48"/>
-      <c r="AK55" s="48"/>
-      <c r="AL55" s="48"/>
-      <c r="AM55" s="48"/>
-      <c r="AN55" s="48"/>
-      <c r="AO55" s="48"/>
-      <c r="AP55" s="48"/>
-      <c r="AQ55" s="48"/>
-      <c r="AR55" s="48"/>
-      <c r="AS55" s="48"/>
-      <c r="AT55" s="48"/>
-      <c r="AU55" s="48"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
+      <c r="AD55" s="50"/>
+      <c r="AE55" s="50"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="50"/>
+      <c r="AJ55" s="50"/>
+      <c r="AK55" s="50"/>
+      <c r="AL55" s="50"/>
+      <c r="AM55" s="50"/>
+      <c r="AN55" s="50"/>
+      <c r="AO55" s="50"/>
+      <c r="AP55" s="50"/>
+      <c r="AQ55" s="50"/>
+      <c r="AR55" s="50"/>
+      <c r="AS55" s="50"/>
+      <c r="AT55" s="50"/>
+      <c r="AU55" s="50"/>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="48"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="48"/>
-      <c r="AA56" s="48"/>
-      <c r="AB56" s="48"/>
-      <c r="AC56" s="48"/>
-      <c r="AD56" s="48"/>
-      <c r="AE56" s="48"/>
-      <c r="AF56" s="48"/>
-      <c r="AG56" s="48"/>
-      <c r="AH56" s="48"/>
-      <c r="AI56" s="48"/>
-      <c r="AJ56" s="48"/>
-      <c r="AK56" s="48"/>
-      <c r="AL56" s="48"/>
-      <c r="AM56" s="48"/>
-      <c r="AN56" s="48"/>
-      <c r="AO56" s="48"/>
-      <c r="AP56" s="48"/>
-      <c r="AQ56" s="48"/>
-      <c r="AR56" s="48"/>
-      <c r="AS56" s="48"/>
-      <c r="AT56" s="48"/>
-      <c r="AU56" s="48"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="50"/>
+      <c r="AD56" s="50"/>
+      <c r="AE56" s="50"/>
+      <c r="AF56" s="50"/>
+      <c r="AG56" s="50"/>
+      <c r="AH56" s="50"/>
+      <c r="AI56" s="50"/>
+      <c r="AJ56" s="50"/>
+      <c r="AK56" s="50"/>
+      <c r="AL56" s="50"/>
+      <c r="AM56" s="50"/>
+      <c r="AN56" s="50"/>
+      <c r="AO56" s="50"/>
+      <c r="AP56" s="50"/>
+      <c r="AQ56" s="50"/>
+      <c r="AR56" s="50"/>
+      <c r="AS56" s="50"/>
+      <c r="AT56" s="50"/>
+      <c r="AU56" s="50"/>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="48"/>
-      <c r="AA57" s="48"/>
-      <c r="AB57" s="48"/>
-      <c r="AC57" s="48"/>
-      <c r="AD57" s="48"/>
-      <c r="AE57" s="48"/>
-      <c r="AF57" s="48"/>
-      <c r="AG57" s="48"/>
-      <c r="AH57" s="48"/>
-      <c r="AI57" s="48"/>
-      <c r="AJ57" s="48"/>
-      <c r="AK57" s="48"/>
-      <c r="AL57" s="48"/>
-      <c r="AM57" s="48"/>
-      <c r="AN57" s="48"/>
-      <c r="AO57" s="48"/>
-      <c r="AP57" s="48"/>
-      <c r="AQ57" s="48"/>
-      <c r="AR57" s="48"/>
-      <c r="AS57" s="48"/>
-      <c r="AT57" s="48"/>
-      <c r="AU57" s="48"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="50"/>
+      <c r="W57" s="50"/>
+      <c r="X57" s="50"/>
+      <c r="Y57" s="50"/>
+      <c r="Z57" s="50"/>
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
+      <c r="AD57" s="50"/>
+      <c r="AE57" s="50"/>
+      <c r="AF57" s="50"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
+      <c r="AI57" s="50"/>
+      <c r="AJ57" s="50"/>
+      <c r="AK57" s="50"/>
+      <c r="AL57" s="50"/>
+      <c r="AM57" s="50"/>
+      <c r="AN57" s="50"/>
+      <c r="AO57" s="50"/>
+      <c r="AP57" s="50"/>
+      <c r="AQ57" s="50"/>
+      <c r="AR57" s="50"/>
+      <c r="AS57" s="50"/>
+      <c r="AT57" s="50"/>
+      <c r="AU57" s="50"/>
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="48"/>
-      <c r="U58" s="48"/>
-      <c r="V58" s="48"/>
-      <c r="W58" s="48"/>
-      <c r="X58" s="48"/>
-      <c r="Y58" s="48"/>
-      <c r="Z58" s="48"/>
-      <c r="AA58" s="48"/>
-      <c r="AB58" s="48"/>
-      <c r="AC58" s="48"/>
-      <c r="AD58" s="48"/>
-      <c r="AE58" s="48"/>
-      <c r="AF58" s="48"/>
-      <c r="AG58" s="48"/>
-      <c r="AH58" s="48"/>
-      <c r="AI58" s="48"/>
-      <c r="AJ58" s="48"/>
-      <c r="AK58" s="48"/>
-      <c r="AL58" s="48"/>
-      <c r="AM58" s="48"/>
-      <c r="AN58" s="48"/>
-      <c r="AO58" s="48"/>
-      <c r="AP58" s="48"/>
-      <c r="AQ58" s="48"/>
-      <c r="AR58" s="48"/>
-      <c r="AS58" s="48"/>
-      <c r="AT58" s="48"/>
-      <c r="AU58" s="48"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="50"/>
+      <c r="AD58" s="50"/>
+      <c r="AE58" s="50"/>
+      <c r="AF58" s="50"/>
+      <c r="AG58" s="50"/>
+      <c r="AH58" s="50"/>
+      <c r="AI58" s="50"/>
+      <c r="AJ58" s="50"/>
+      <c r="AK58" s="50"/>
+      <c r="AL58" s="50"/>
+      <c r="AM58" s="50"/>
+      <c r="AN58" s="50"/>
+      <c r="AO58" s="50"/>
+      <c r="AP58" s="50"/>
+      <c r="AQ58" s="50"/>
+      <c r="AR58" s="50"/>
+      <c r="AS58" s="50"/>
+      <c r="AT58" s="50"/>
+      <c r="AU58" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12125,48 +12125,48 @@
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="J6" s="38" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="46" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
       <c r="S6" s="38" t="s">
         <v>27</v>
       </c>
       <c r="T6" s="38"/>
-      <c r="U6" s="45" t="s">
+      <c r="U6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -14311,48 +14311,48 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
       <c r="J7" s="38" t="s">
         <v>38</v>
       </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="46" t="s">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
       <c r="S7" s="38" t="s">
         <v>39</v>
       </c>
       <c r="T7" s="38"/>
-      <c r="U7" s="45" t="s">
+      <c r="U7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="46" t="s">
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -16132,23 +16132,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7633C9-1321-4BA4-B8FD-E320CD2D249F}">
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
@@ -16162,14 +16162,14 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="45" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="22" t="s">
@@ -16182,33 +16182,33 @@
         <v>36</v>
       </c>
       <c r="J2">
-        <v>0.32358749353343341</v>
+        <v>0.31897633310523632</v>
       </c>
       <c r="K2">
-        <v>0.74506989398630263</v>
+        <v>0.72038043478260871</v>
       </c>
       <c r="L2">
-        <v>0.91444728440164247</v>
+        <v>0.89022441764836679</v>
       </c>
       <c r="M2">
-        <v>0.12682736584726989</v>
+        <v>0.13249773574098461</v>
       </c>
       <c r="N2">
-        <v>0.47728546995459203</v>
+        <v>0.46885260174837723</v>
       </c>
       <c r="O2">
-        <v>0.21556983612550812</v>
+        <v>0.22201655658026595</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="45" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -16221,79 +16221,79 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>0.3062685298879374</v>
+        <v>0.32074656293644949</v>
       </c>
       <c r="K3">
-        <v>0.68570205154408659</v>
+        <v>0.76351897844157901</v>
       </c>
       <c r="L3">
-        <v>0.48018055751241978</v>
+        <v>0.92687643558358523</v>
       </c>
       <c r="M3">
-        <v>0.51255555513100459</v>
+        <v>0.10577052714464666</v>
       </c>
       <c r="N3">
-        <v>0.36048277727481076</v>
+        <v>0.43043763326073031</v>
       </c>
       <c r="O3">
-        <v>0.55887676069394621</v>
+        <v>0.18509065183858533</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
       <c r="J7" s="38" t="s">
         <v>41</v>
       </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="46" t="s">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
       <c r="S7" s="38" t="s">
         <v>42</v>
       </c>
       <c r="T7" s="38"/>
-      <c r="U7" s="45" t="s">
+      <c r="U7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="46" t="s">
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -17938,18 +17938,18 @@
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="I44" s="48" t="s">
+      <c r="B44" s="49"/>
+      <c r="I44" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="48"/>
-      <c r="Q44" s="48" t="s">
+      <c r="J44" s="50"/>
+      <c r="Q44" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="48"/>
+      <c r="R44" s="50"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -19615,354 +19615,354 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20076,48 +20076,48 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="J6" s="38" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="46" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
       <c r="S6" s="38" t="s">
         <v>30</v>
       </c>
       <c r="T6" s="38"/>
-      <c r="U6" s="45" t="s">
+      <c r="U6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
